--- a/Data/2024-2025_ПІ_Бакалаври.xlsx
+++ b/Data/2024-2025_ПІ_Бакалаври.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PY\DefenseSchedule\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PY\DefenseSchedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F6F69-0092-4E49-8602-01F3CEA30B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD72764E-4595-4064-B45A-47B9BC6BAE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1212" yWindow="288" windowWidth="21828" windowHeight="11952" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Денне" sheetId="1" r:id="rId1"/>
-    <sheet name="Дні захисту" sheetId="6" r:id="rId2"/>
-    <sheet name="Сортування за ПІБ" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Сортування наказу" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="Сортування наказу (2)" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="Підготовка вставки у наказ" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Рейтинг" sheetId="7" r:id="rId2"/>
+    <sheet name="Дні захисту" sheetId="6" r:id="rId3"/>
+    <sheet name="Бажання" sheetId="8" r:id="rId4"/>
+    <sheet name="Сортування за ПІБ" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Сортування наказу" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="Сортування наказу (2)" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Підготовка вставки у наказ" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Бажання!$A$1:$D$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Денне!$A$1:$G$175</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="1052">
   <si>
     <t>щ</t>
   </si>
@@ -3256,12 +3259,18 @@
   <si>
     <t>Кількість</t>
   </si>
+  <si>
+    <t>рейтинг</t>
+  </si>
+  <si>
+    <t>Тема кваліфікаційної роботи</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3467,6 +3476,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -3590,7 +3605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3703,11 +3718,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4184,6 +4251,85 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4195,13 +4341,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4224,6 +4409,11 @@
           <fgColor rgb="FFF4C7C3"/>
           <bgColor rgb="FFF4C7C3"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
@@ -4450,10 +4640,10 @@
   <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C175" sqref="A175:XFD175"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4494,10 +4684,10 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="46.8">
-      <c r="A2" s="179">
-        <v>1</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="210">
+        <v>1</v>
+      </c>
+      <c r="B2" s="211" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4519,8 +4709,8 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="31.2">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="208"/>
       <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
@@ -4536,8 +4726,8 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="178"/>
-      <c r="B4" s="178"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="209"/>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
@@ -4553,10 +4743,10 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="46.8">
-      <c r="A5" s="179">
+      <c r="A5" s="210">
         <v>2</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="211" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4574,8 +4764,8 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="31.2">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
+      <c r="A6" s="208"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
@@ -4593,8 +4783,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="31.2">
-      <c r="A7" s="178"/>
-      <c r="B7" s="178"/>
+      <c r="A7" s="209"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
@@ -4612,10 +4802,10 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="31.2">
-      <c r="A8" s="179">
+      <c r="A8" s="210">
         <v>3</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="211" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -4637,8 +4827,8 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="31.2">
-      <c r="A9" s="177"/>
-      <c r="B9" s="177"/>
+      <c r="A9" s="208"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
@@ -4658,8 +4848,8 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="31.2">
-      <c r="A10" s="177"/>
-      <c r="B10" s="177"/>
+      <c r="A10" s="208"/>
+      <c r="B10" s="208"/>
       <c r="C10" s="17" t="s">
         <v>33</v>
       </c>
@@ -4679,8 +4869,8 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="31.2">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="208"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="8" t="s">
         <v>36</v>
       </c>
@@ -4698,8 +4888,8 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="31.2">
-      <c r="A12" s="177"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="208"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
@@ -4717,8 +4907,8 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="31.2">
-      <c r="A13" s="177"/>
-      <c r="B13" s="177"/>
+      <c r="A13" s="208"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
@@ -4736,8 +4926,8 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="46.8">
-      <c r="A14" s="178"/>
-      <c r="B14" s="178"/>
+      <c r="A14" s="209"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
@@ -4755,10 +4945,10 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="31.2">
-      <c r="A15" s="179">
+      <c r="A15" s="210">
         <v>4</v>
       </c>
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="211" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -4778,8 +4968,8 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="31.2">
-      <c r="A16" s="177"/>
-      <c r="B16" s="177"/>
+      <c r="A16" s="208"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="21" t="s">
         <v>51</v>
       </c>
@@ -4797,8 +4987,8 @@
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="31.2">
-      <c r="A17" s="178"/>
-      <c r="B17" s="178"/>
+      <c r="A17" s="209"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="22" t="s">
         <v>54</v>
       </c>
@@ -4816,10 +5006,10 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="62.4">
-      <c r="A18" s="179">
+      <c r="A18" s="210">
         <v>5</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="207" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4839,8 +5029,8 @@
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="62.4">
-      <c r="A19" s="177"/>
-      <c r="B19" s="177"/>
+      <c r="A19" s="208"/>
+      <c r="B19" s="208"/>
       <c r="C19" s="9" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5048,8 @@
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="177"/>
-      <c r="B20" s="177"/>
+      <c r="A20" s="208"/>
+      <c r="B20" s="208"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
@@ -4873,8 +5063,8 @@
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="208"/>
+      <c r="B21" s="208"/>
       <c r="C21" s="12" t="s">
         <v>62</v>
       </c>
@@ -4890,8 +5080,8 @@
       <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="178"/>
-      <c r="B22" s="178"/>
+      <c r="A22" s="209"/>
+      <c r="B22" s="209"/>
       <c r="C22" s="12" t="s">
         <v>64</v>
       </c>
@@ -4907,10 +5097,10 @@
       <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="179">
+      <c r="A23" s="210">
         <v>6</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="207" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -4928,8 +5118,8 @@
       <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="177"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="208"/>
+      <c r="B24" s="208"/>
       <c r="C24" s="9" t="s">
         <v>70</v>
       </c>
@@ -4945,8 +5135,8 @@
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="31.2">
-      <c r="A25" s="177"/>
-      <c r="B25" s="177"/>
+      <c r="A25" s="208"/>
+      <c r="B25" s="208"/>
       <c r="C25" s="12" t="s">
         <v>73</v>
       </c>
@@ -4964,8 +5154,8 @@
       <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" ht="31.2">
-      <c r="A26" s="178"/>
-      <c r="B26" s="178"/>
+      <c r="A26" s="209"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="12" t="s">
         <v>75</v>
       </c>
@@ -4983,10 +5173,10 @@
       <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" ht="31.2">
-      <c r="A27" s="179">
+      <c r="A27" s="210">
         <v>7</v>
       </c>
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="207" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -5006,8 +5196,8 @@
       <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="178"/>
-      <c r="B28" s="178"/>
+      <c r="A28" s="209"/>
+      <c r="B28" s="209"/>
       <c r="C28" s="34" t="s">
         <v>80</v>
       </c>
@@ -5023,10 +5213,10 @@
       <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" ht="46.8">
-      <c r="A29" s="179">
+      <c r="A29" s="210">
         <v>8</v>
       </c>
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="207" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -5044,8 +5234,8 @@
       <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" ht="18">
-      <c r="A30" s="178"/>
-      <c r="B30" s="178"/>
+      <c r="A30" s="209"/>
+      <c r="B30" s="209"/>
       <c r="C30" s="37"/>
       <c r="D30" s="35"/>
       <c r="E30" s="10"/>
@@ -5059,10 +5249,10 @@
       <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="31.2">
-      <c r="A31" s="179">
+      <c r="A31" s="210">
         <v>9</v>
       </c>
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="207" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -5082,8 +5272,8 @@
       <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:9" ht="31.2">
-      <c r="A32" s="177"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="208"/>
+      <c r="B32" s="208"/>
       <c r="C32" s="9" t="s">
         <v>90</v>
       </c>
@@ -5101,8 +5291,8 @@
       <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" ht="31.2">
-      <c r="A33" s="178"/>
-      <c r="B33" s="178"/>
+      <c r="A33" s="209"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="34" t="s">
         <v>92</v>
       </c>
@@ -5118,10 +5308,10 @@
       <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" ht="31.8">
-      <c r="A34" s="179">
+      <c r="A34" s="210">
         <v>10</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="207" t="s">
         <v>94</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -5141,8 +5331,8 @@
       <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" ht="31.8">
-      <c r="A35" s="177"/>
-      <c r="B35" s="177"/>
+      <c r="A35" s="208"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="17" t="s">
         <v>97</v>
       </c>
@@ -5160,8 +5350,8 @@
       <c r="I35" s="26"/>
     </row>
     <row r="36" spans="1:9" ht="31.8">
-      <c r="A36" s="177"/>
-      <c r="B36" s="177"/>
+      <c r="A36" s="208"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="17" t="s">
         <v>99</v>
       </c>
@@ -5179,8 +5369,8 @@
       <c r="I36" s="26"/>
     </row>
     <row r="37" spans="1:9" ht="31.8">
-      <c r="A37" s="177"/>
-      <c r="B37" s="177"/>
+      <c r="A37" s="208"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="17" t="s">
         <v>101</v>
       </c>
@@ -5198,8 +5388,8 @@
       <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:9" ht="31.8">
-      <c r="A38" s="177"/>
-      <c r="B38" s="177"/>
+      <c r="A38" s="208"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="17" t="s">
         <v>103</v>
       </c>
@@ -5217,8 +5407,8 @@
       <c r="I38" s="26"/>
     </row>
     <row r="39" spans="1:9" ht="31.8">
-      <c r="A39" s="178"/>
-      <c r="B39" s="178"/>
+      <c r="A39" s="209"/>
+      <c r="B39" s="209"/>
       <c r="C39" s="17" t="s">
         <v>105</v>
       </c>
@@ -5236,10 +5426,10 @@
       <c r="I39" s="26"/>
     </row>
     <row r="40" spans="1:9" ht="18">
-      <c r="A40" s="179">
+      <c r="A40" s="210">
         <v>11</v>
       </c>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="207" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="39"/>
@@ -5257,8 +5447,8 @@
       <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="177"/>
-      <c r="B41" s="177"/>
+      <c r="A41" s="208"/>
+      <c r="B41" s="208"/>
       <c r="C41" s="41"/>
       <c r="D41" s="34"/>
       <c r="E41" s="10">
@@ -5274,8 +5464,8 @@
       <c r="I41" s="26"/>
     </row>
     <row r="42" spans="1:9" ht="18">
-      <c r="A42" s="178"/>
-      <c r="B42" s="178"/>
+      <c r="A42" s="209"/>
+      <c r="B42" s="209"/>
       <c r="C42" s="41"/>
       <c r="D42" s="34"/>
       <c r="E42" s="10">
@@ -5291,10 +5481,10 @@
       <c r="I42" s="26"/>
     </row>
     <row r="43" spans="1:9" ht="31.2">
-      <c r="A43" s="179">
+      <c r="A43" s="210">
         <v>12</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="207" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -5316,8 +5506,8 @@
       <c r="I43" s="26"/>
     </row>
     <row r="44" spans="1:9" ht="46.8">
-      <c r="A44" s="178"/>
-      <c r="B44" s="178"/>
+      <c r="A44" s="209"/>
+      <c r="B44" s="209"/>
       <c r="C44" s="34" t="s">
         <v>115</v>
       </c>
@@ -5337,10 +5527,10 @@
       <c r="I44" s="26"/>
     </row>
     <row r="45" spans="1:9" ht="31.2">
-      <c r="A45" s="179">
+      <c r="A45" s="210">
         <v>13</v>
       </c>
-      <c r="B45" s="176" t="s">
+      <c r="B45" s="207" t="s">
         <v>118</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -5362,8 +5552,8 @@
       <c r="I45" s="26"/>
     </row>
     <row r="46" spans="1:9" ht="31.2">
-      <c r="A46" s="177"/>
-      <c r="B46" s="177"/>
+      <c r="A46" s="208"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="34" t="s">
         <v>122</v>
       </c>
@@ -5381,8 +5571,8 @@
       <c r="I46" s="26"/>
     </row>
     <row r="47" spans="1:9" ht="46.8">
-      <c r="A47" s="177"/>
-      <c r="B47" s="177"/>
+      <c r="A47" s="208"/>
+      <c r="B47" s="208"/>
       <c r="C47" s="34" t="s">
         <v>125</v>
       </c>
@@ -5402,8 +5592,8 @@
       <c r="I47" s="26"/>
     </row>
     <row r="48" spans="1:9" ht="31.2">
-      <c r="A48" s="177"/>
-      <c r="B48" s="177"/>
+      <c r="A48" s="208"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="34" t="s">
         <v>128</v>
       </c>
@@ -5421,8 +5611,8 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" ht="31.2">
-      <c r="A49" s="177"/>
-      <c r="B49" s="177"/>
+      <c r="A49" s="208"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="34" t="s">
         <v>131</v>
       </c>
@@ -5440,8 +5630,8 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A50" s="177"/>
-      <c r="B50" s="177"/>
+      <c r="A50" s="208"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="34" t="s">
         <v>134</v>
       </c>
@@ -5461,8 +5651,8 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" ht="62.4">
-      <c r="A51" s="177"/>
-      <c r="B51" s="177"/>
+      <c r="A51" s="208"/>
+      <c r="B51" s="208"/>
       <c r="C51" s="33" t="s">
         <v>137</v>
       </c>
@@ -5480,8 +5670,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="46.8">
-      <c r="A52" s="178"/>
-      <c r="B52" s="178"/>
+      <c r="A52" s="209"/>
+      <c r="B52" s="209"/>
       <c r="C52" s="33" t="s">
         <v>140</v>
       </c>
@@ -5499,10 +5689,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="31.2">
-      <c r="A53" s="179">
+      <c r="A53" s="210">
         <v>14</v>
       </c>
-      <c r="B53" s="176" t="s">
+      <c r="B53" s="207" t="s">
         <v>143</v>
       </c>
       <c r="C53" s="35" t="s">
@@ -5522,8 +5712,8 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" ht="31.2">
-      <c r="A54" s="178"/>
-      <c r="B54" s="178"/>
+      <c r="A54" s="209"/>
+      <c r="B54" s="209"/>
       <c r="C54" s="35" t="s">
         <v>147</v>
       </c>
@@ -5541,10 +5731,10 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="62.4">
-      <c r="A55" s="179">
+      <c r="A55" s="210">
         <v>15</v>
       </c>
-      <c r="B55" s="176" t="s">
+      <c r="B55" s="207" t="s">
         <v>149</v>
       </c>
       <c r="C55" s="34" t="s">
@@ -5564,8 +5754,8 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" ht="46.8">
-      <c r="A56" s="177"/>
-      <c r="B56" s="177"/>
+      <c r="A56" s="208"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="34" t="s">
         <v>152</v>
       </c>
@@ -5581,8 +5771,8 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" ht="46.8">
-      <c r="A57" s="178"/>
-      <c r="B57" s="178"/>
+      <c r="A57" s="209"/>
+      <c r="B57" s="209"/>
       <c r="C57" s="34" t="s">
         <v>154</v>
       </c>
@@ -5598,10 +5788,10 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="18">
-      <c r="A58" s="179">
+      <c r="A58" s="210">
         <v>16</v>
       </c>
-      <c r="B58" s="176" t="s">
+      <c r="B58" s="207" t="s">
         <v>156</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -5623,8 +5813,8 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" ht="18">
-      <c r="A59" s="177"/>
-      <c r="B59" s="177"/>
+      <c r="A59" s="208"/>
+      <c r="B59" s="208"/>
       <c r="C59" s="41" t="s">
         <v>157</v>
       </c>
@@ -5644,8 +5834,8 @@
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="18">
-      <c r="A60" s="177"/>
-      <c r="B60" s="177"/>
+      <c r="A60" s="208"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="41" t="s">
         <v>157</v>
       </c>
@@ -5665,8 +5855,8 @@
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:9" ht="31.2">
-      <c r="A61" s="177"/>
-      <c r="B61" s="177"/>
+      <c r="A61" s="208"/>
+      <c r="B61" s="208"/>
       <c r="C61" s="41" t="s">
         <v>162</v>
       </c>
@@ -5686,8 +5876,8 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" ht="31.2">
-      <c r="A62" s="177"/>
-      <c r="B62" s="177"/>
+      <c r="A62" s="208"/>
+      <c r="B62" s="208"/>
       <c r="C62" s="41" t="s">
         <v>162</v>
       </c>
@@ -5707,8 +5897,8 @@
       <c r="I62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="31.2">
-      <c r="A63" s="177"/>
-      <c r="B63" s="177"/>
+      <c r="A63" s="208"/>
+      <c r="B63" s="208"/>
       <c r="C63" s="34" t="s">
         <v>167</v>
       </c>
@@ -5726,8 +5916,8 @@
       <c r="I63" s="26"/>
     </row>
     <row r="64" spans="1:9" ht="18">
-      <c r="A64" s="177"/>
-      <c r="B64" s="177"/>
+      <c r="A64" s="208"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="34" t="s">
         <v>170</v>
       </c>
@@ -5745,8 +5935,8 @@
       <c r="I64" s="26"/>
     </row>
     <row r="65" spans="1:9" ht="18">
-      <c r="A65" s="178"/>
-      <c r="B65" s="178"/>
+      <c r="A65" s="209"/>
+      <c r="B65" s="209"/>
       <c r="C65" s="34" t="s">
         <v>173</v>
       </c>
@@ -5764,10 +5954,10 @@
       <c r="I65" s="26"/>
     </row>
     <row r="66" spans="1:9" ht="31.2">
-      <c r="A66" s="179">
+      <c r="A66" s="210">
         <v>17</v>
       </c>
-      <c r="B66" s="176" t="s">
+      <c r="B66" s="207" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -5787,8 +5977,8 @@
       <c r="I66" s="26"/>
     </row>
     <row r="67" spans="1:9" ht="31.2">
-      <c r="A67" s="177"/>
-      <c r="B67" s="177"/>
+      <c r="A67" s="208"/>
+      <c r="B67" s="208"/>
       <c r="C67" s="14" t="s">
         <v>180</v>
       </c>
@@ -5806,8 +5996,8 @@
       <c r="I67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="31.2">
-      <c r="A68" s="177"/>
-      <c r="B68" s="177"/>
+      <c r="A68" s="208"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="51" t="s">
         <v>183</v>
       </c>
@@ -5825,8 +6015,8 @@
       <c r="I68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="31.2">
-      <c r="A69" s="177"/>
-      <c r="B69" s="177"/>
+      <c r="A69" s="208"/>
+      <c r="B69" s="208"/>
       <c r="C69" s="34" t="s">
         <v>186</v>
       </c>
@@ -5846,8 +6036,8 @@
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="31.2">
-      <c r="A70" s="178"/>
-      <c r="B70" s="178"/>
+      <c r="A70" s="209"/>
+      <c r="B70" s="209"/>
       <c r="C70" s="54" t="s">
         <v>189</v>
       </c>
@@ -5867,10 +6057,10 @@
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="1:9" ht="31.2">
-      <c r="A71" s="179">
+      <c r="A71" s="210">
         <v>18</v>
       </c>
-      <c r="B71" s="176" t="s">
+      <c r="B71" s="207" t="s">
         <v>192</v>
       </c>
       <c r="C71" s="34" t="s">
@@ -5890,8 +6080,8 @@
       <c r="I71" s="26"/>
     </row>
     <row r="72" spans="1:9" ht="46.8">
-      <c r="A72" s="177"/>
-      <c r="B72" s="177"/>
+      <c r="A72" s="208"/>
+      <c r="B72" s="208"/>
       <c r="C72" s="34" t="s">
         <v>196</v>
       </c>
@@ -5911,8 +6101,8 @@
       <c r="I72" s="26"/>
     </row>
     <row r="73" spans="1:9" ht="46.8">
-      <c r="A73" s="178"/>
-      <c r="B73" s="178"/>
+      <c r="A73" s="209"/>
+      <c r="B73" s="209"/>
       <c r="C73" s="34" t="s">
         <v>199</v>
       </c>
@@ -5932,10 +6122,10 @@
       <c r="I73" s="26"/>
     </row>
     <row r="74" spans="1:9" ht="46.8">
-      <c r="A74" s="179">
+      <c r="A74" s="210">
         <v>19</v>
       </c>
-      <c r="B74" s="176" t="s">
+      <c r="B74" s="207" t="s">
         <v>201</v>
       </c>
       <c r="C74" s="34" t="s">
@@ -5953,8 +6143,8 @@
       <c r="I74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="31.8">
-      <c r="A75" s="177"/>
-      <c r="B75" s="177"/>
+      <c r="A75" s="208"/>
+      <c r="B75" s="208"/>
       <c r="C75" s="56" t="s">
         <v>204</v>
       </c>
@@ -5970,8 +6160,8 @@
       <c r="I75" s="26"/>
     </row>
     <row r="76" spans="1:9" ht="31.2">
-      <c r="A76" s="177"/>
-      <c r="B76" s="177"/>
+      <c r="A76" s="208"/>
+      <c r="B76" s="208"/>
       <c r="C76" s="34" t="s">
         <v>206</v>
       </c>
@@ -5987,8 +6177,8 @@
       <c r="I76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="31.2">
-      <c r="A77" s="178"/>
-      <c r="B77" s="178"/>
+      <c r="A77" s="209"/>
+      <c r="B77" s="209"/>
       <c r="C77" s="34" t="s">
         <v>208</v>
       </c>
@@ -6004,10 +6194,10 @@
       <c r="I77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="31.2">
-      <c r="A78" s="179">
+      <c r="A78" s="210">
         <v>20</v>
       </c>
-      <c r="B78" s="176" t="s">
+      <c r="B78" s="207" t="s">
         <v>210</v>
       </c>
       <c r="C78" s="34" t="s">
@@ -6027,8 +6217,8 @@
       <c r="I78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="46.8">
-      <c r="A79" s="177"/>
-      <c r="B79" s="177"/>
+      <c r="A79" s="208"/>
+      <c r="B79" s="208"/>
       <c r="C79" s="34" t="s">
         <v>213</v>
       </c>
@@ -6046,8 +6236,8 @@
       <c r="I79" s="26"/>
     </row>
     <row r="80" spans="1:9" ht="31.2">
-      <c r="A80" s="177"/>
-      <c r="B80" s="177"/>
+      <c r="A80" s="208"/>
+      <c r="B80" s="208"/>
       <c r="C80" s="34" t="s">
         <v>215</v>
       </c>
@@ -6065,8 +6255,8 @@
       <c r="I80" s="26"/>
     </row>
     <row r="81" spans="1:9" ht="31.2">
-      <c r="A81" s="177"/>
-      <c r="B81" s="177"/>
+      <c r="A81" s="208"/>
+      <c r="B81" s="208"/>
       <c r="C81" s="34" t="s">
         <v>217</v>
       </c>
@@ -6084,8 +6274,8 @@
       <c r="I81" s="26"/>
     </row>
     <row r="82" spans="1:9" ht="31.2">
-      <c r="A82" s="177"/>
-      <c r="B82" s="177"/>
+      <c r="A82" s="208"/>
+      <c r="B82" s="208"/>
       <c r="C82" s="34" t="s">
         <v>219</v>
       </c>
@@ -6103,8 +6293,8 @@
       <c r="I82" s="26"/>
     </row>
     <row r="83" spans="1:9" ht="46.8">
-      <c r="A83" s="177"/>
-      <c r="B83" s="177"/>
+      <c r="A83" s="208"/>
+      <c r="B83" s="208"/>
       <c r="C83" s="34" t="s">
         <v>221</v>
       </c>
@@ -6122,8 +6312,8 @@
       <c r="I83" s="26"/>
     </row>
     <row r="84" spans="1:9" ht="31.2">
-      <c r="A84" s="177"/>
-      <c r="B84" s="177"/>
+      <c r="A84" s="208"/>
+      <c r="B84" s="208"/>
       <c r="C84" s="34" t="s">
         <v>223</v>
       </c>
@@ -6139,8 +6329,8 @@
       <c r="I84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="46.8">
-      <c r="A85" s="178"/>
-      <c r="B85" s="178"/>
+      <c r="A85" s="209"/>
+      <c r="B85" s="209"/>
       <c r="C85" s="34" t="s">
         <v>225</v>
       </c>
@@ -6156,10 +6346,10 @@
       <c r="I85" s="26"/>
     </row>
     <row r="86" spans="1:9" ht="18">
-      <c r="A86" s="179">
+      <c r="A86" s="210">
         <v>22</v>
       </c>
-      <c r="B86" s="176" t="s">
+      <c r="B86" s="207" t="s">
         <v>227</v>
       </c>
       <c r="C86" s="41"/>
@@ -6175,8 +6365,8 @@
       <c r="I86" s="26"/>
     </row>
     <row r="87" spans="1:9" ht="18">
-      <c r="A87" s="177"/>
-      <c r="B87" s="177"/>
+      <c r="A87" s="208"/>
+      <c r="B87" s="208"/>
       <c r="C87" s="41"/>
       <c r="D87" s="34"/>
       <c r="E87" s="10"/>
@@ -6190,8 +6380,8 @@
       <c r="I87" s="26"/>
     </row>
     <row r="88" spans="1:9" ht="18">
-      <c r="A88" s="178"/>
-      <c r="B88" s="178"/>
+      <c r="A88" s="209"/>
+      <c r="B88" s="209"/>
       <c r="C88" s="58"/>
       <c r="D88" s="34"/>
       <c r="E88" s="10"/>
@@ -6205,10 +6395,10 @@
       <c r="I88" s="26"/>
     </row>
     <row r="89" spans="1:9" ht="31.2">
-      <c r="A89" s="179">
+      <c r="A89" s="210">
         <v>23</v>
       </c>
-      <c r="B89" s="176" t="s">
+      <c r="B89" s="207" t="s">
         <v>231</v>
       </c>
       <c r="C89" s="34" t="s">
@@ -6228,8 +6418,8 @@
       <c r="I89" s="26"/>
     </row>
     <row r="90" spans="1:9" ht="46.8">
-      <c r="A90" s="177"/>
-      <c r="B90" s="177"/>
+      <c r="A90" s="208"/>
+      <c r="B90" s="208"/>
       <c r="C90" s="34" t="s">
         <v>235</v>
       </c>
@@ -6249,8 +6439,8 @@
       <c r="I90" s="26"/>
     </row>
     <row r="91" spans="1:9" ht="31.2">
-      <c r="A91" s="177"/>
-      <c r="B91" s="177"/>
+      <c r="A91" s="208"/>
+      <c r="B91" s="208"/>
       <c r="C91" s="34" t="s">
         <v>238</v>
       </c>
@@ -6270,8 +6460,8 @@
       <c r="I91" s="26"/>
     </row>
     <row r="92" spans="1:9" ht="31.2">
-      <c r="A92" s="178"/>
-      <c r="B92" s="178"/>
+      <c r="A92" s="209"/>
+      <c r="B92" s="209"/>
       <c r="C92" s="34" t="s">
         <v>241</v>
       </c>
@@ -6289,10 +6479,10 @@
       <c r="I92" s="26"/>
     </row>
     <row r="93" spans="1:9" ht="31.2">
-      <c r="A93" s="179">
+      <c r="A93" s="210">
         <v>24</v>
       </c>
-      <c r="B93" s="176" t="s">
+      <c r="B93" s="207" t="s">
         <v>244</v>
       </c>
       <c r="C93" s="34" t="s">
@@ -6310,8 +6500,8 @@
       <c r="I93" s="26"/>
     </row>
     <row r="94" spans="1:9" ht="31.2">
-      <c r="A94" s="178"/>
-      <c r="B94" s="178"/>
+      <c r="A94" s="209"/>
+      <c r="B94" s="209"/>
       <c r="C94" s="34" t="s">
         <v>247</v>
       </c>
@@ -6327,10 +6517,10 @@
       <c r="I94" s="26"/>
     </row>
     <row r="95" spans="1:9" ht="31.2">
-      <c r="A95" s="179">
+      <c r="A95" s="210">
         <v>25</v>
       </c>
-      <c r="B95" s="176" t="s">
+      <c r="B95" s="207" t="s">
         <v>249</v>
       </c>
       <c r="C95" s="34" t="s">
@@ -6350,8 +6540,8 @@
       <c r="I95" s="26"/>
     </row>
     <row r="96" spans="1:9" ht="31.2">
-      <c r="A96" s="177"/>
-      <c r="B96" s="177"/>
+      <c r="A96" s="208"/>
+      <c r="B96" s="208"/>
       <c r="C96" s="34" t="s">
         <v>252</v>
       </c>
@@ -6369,8 +6559,8 @@
       <c r="I96" s="26"/>
     </row>
     <row r="97" spans="1:9" ht="31.2">
-      <c r="A97" s="178"/>
-      <c r="B97" s="178"/>
+      <c r="A97" s="209"/>
+      <c r="B97" s="209"/>
       <c r="C97" s="34" t="s">
         <v>254</v>
       </c>
@@ -6388,10 +6578,10 @@
       <c r="I97" s="26"/>
     </row>
     <row r="98" spans="1:9" ht="63">
-      <c r="A98" s="179">
+      <c r="A98" s="210">
         <v>26</v>
       </c>
-      <c r="B98" s="176" t="s">
+      <c r="B98" s="207" t="s">
         <v>256</v>
       </c>
       <c r="C98" s="61" t="s">
@@ -6413,8 +6603,8 @@
       <c r="I98" s="26"/>
     </row>
     <row r="99" spans="1:9" ht="31.8">
-      <c r="A99" s="177"/>
-      <c r="B99" s="177"/>
+      <c r="A99" s="208"/>
+      <c r="B99" s="208"/>
       <c r="C99" s="61" t="s">
         <v>260</v>
       </c>
@@ -6434,8 +6624,8 @@
       <c r="I99" s="26"/>
     </row>
     <row r="100" spans="1:9" ht="47.4">
-      <c r="A100" s="177"/>
-      <c r="B100" s="177"/>
+      <c r="A100" s="208"/>
+      <c r="B100" s="208"/>
       <c r="C100" s="61" t="s">
         <v>263</v>
       </c>
@@ -6455,8 +6645,8 @@
       <c r="I100" s="26"/>
     </row>
     <row r="101" spans="1:9" ht="47.4">
-      <c r="A101" s="177"/>
-      <c r="B101" s="177"/>
+      <c r="A101" s="208"/>
+      <c r="B101" s="208"/>
       <c r="C101" s="61" t="s">
         <v>266</v>
       </c>
@@ -6476,8 +6666,8 @@
       <c r="I101" s="26"/>
     </row>
     <row r="102" spans="1:9" ht="47.4">
-      <c r="A102" s="177"/>
-      <c r="B102" s="177"/>
+      <c r="A102" s="208"/>
+      <c r="B102" s="208"/>
       <c r="C102" s="61" t="s">
         <v>269</v>
       </c>
@@ -6497,8 +6687,8 @@
       <c r="I102" s="26"/>
     </row>
     <row r="103" spans="1:9" ht="47.4">
-      <c r="A103" s="177"/>
-      <c r="B103" s="177"/>
+      <c r="A103" s="208"/>
+      <c r="B103" s="208"/>
       <c r="C103" s="61" t="s">
         <v>272</v>
       </c>
@@ -6518,8 +6708,8 @@
       <c r="I103" s="26"/>
     </row>
     <row r="104" spans="1:9" ht="47.4">
-      <c r="A104" s="177"/>
-      <c r="B104" s="177"/>
+      <c r="A104" s="208"/>
+      <c r="B104" s="208"/>
       <c r="C104" s="61" t="s">
         <v>275</v>
       </c>
@@ -6539,8 +6729,8 @@
       <c r="I104" s="26"/>
     </row>
     <row r="105" spans="1:9" ht="47.4">
-      <c r="A105" s="177"/>
-      <c r="B105" s="177"/>
+      <c r="A105" s="208"/>
+      <c r="B105" s="208"/>
       <c r="C105" s="61" t="s">
         <v>278</v>
       </c>
@@ -6560,8 +6750,8 @@
       <c r="I105" s="26"/>
     </row>
     <row r="106" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A106" s="177"/>
-      <c r="B106" s="177"/>
+      <c r="A106" s="208"/>
+      <c r="B106" s="208"/>
       <c r="C106" s="61" t="s">
         <v>281</v>
       </c>
@@ -6581,8 +6771,8 @@
       <c r="I106" s="26"/>
     </row>
     <row r="107" spans="1:9" ht="47.4">
-      <c r="A107" s="177"/>
-      <c r="B107" s="177"/>
+      <c r="A107" s="208"/>
+      <c r="B107" s="208"/>
       <c r="C107" s="61" t="s">
         <v>284</v>
       </c>
@@ -6602,8 +6792,8 @@
       <c r="I107" s="26"/>
     </row>
     <row r="108" spans="1:9" ht="47.4">
-      <c r="A108" s="177"/>
-      <c r="B108" s="177"/>
+      <c r="A108" s="208"/>
+      <c r="B108" s="208"/>
       <c r="C108" s="61" t="s">
         <v>287</v>
       </c>
@@ -6623,8 +6813,8 @@
       <c r="I108" s="26"/>
     </row>
     <row r="109" spans="1:9" ht="47.4">
-      <c r="A109" s="177"/>
-      <c r="B109" s="177"/>
+      <c r="A109" s="208"/>
+      <c r="B109" s="208"/>
       <c r="C109" s="61" t="s">
         <v>290</v>
       </c>
@@ -6644,8 +6834,8 @@
       <c r="I109" s="26"/>
     </row>
     <row r="110" spans="1:9" ht="47.4">
-      <c r="A110" s="177"/>
-      <c r="B110" s="177"/>
+      <c r="A110" s="208"/>
+      <c r="B110" s="208"/>
       <c r="C110" s="61" t="s">
         <v>293</v>
       </c>
@@ -6665,8 +6855,8 @@
       <c r="I110" s="26"/>
     </row>
     <row r="111" spans="1:9" ht="31.8">
-      <c r="A111" s="177"/>
-      <c r="B111" s="177"/>
+      <c r="A111" s="208"/>
+      <c r="B111" s="208"/>
       <c r="C111" s="61" t="s">
         <v>296</v>
       </c>
@@ -6686,8 +6876,8 @@
       <c r="I111" s="26"/>
     </row>
     <row r="112" spans="1:9" ht="31.8">
-      <c r="A112" s="178"/>
-      <c r="B112" s="178"/>
+      <c r="A112" s="209"/>
+      <c r="B112" s="209"/>
       <c r="C112" s="67" t="s">
         <v>299</v>
       </c>
@@ -6707,10 +6897,10 @@
       <c r="I112" s="26"/>
     </row>
     <row r="113" spans="1:9" ht="31.8">
-      <c r="A113" s="179">
+      <c r="A113" s="210">
         <v>27</v>
       </c>
-      <c r="B113" s="176" t="s">
+      <c r="B113" s="207" t="s">
         <v>302</v>
       </c>
       <c r="C113" s="34" t="s">
@@ -6732,8 +6922,8 @@
       <c r="I113" s="26"/>
     </row>
     <row r="114" spans="1:9" ht="31.8">
-      <c r="A114" s="177"/>
-      <c r="B114" s="177"/>
+      <c r="A114" s="208"/>
+      <c r="B114" s="208"/>
       <c r="C114" s="54" t="s">
         <v>306</v>
       </c>
@@ -6753,8 +6943,8 @@
       <c r="I114" s="26"/>
     </row>
     <row r="115" spans="1:9" ht="31.2">
-      <c r="A115" s="177"/>
-      <c r="B115" s="177"/>
+      <c r="A115" s="208"/>
+      <c r="B115" s="208"/>
       <c r="C115" s="54" t="s">
         <v>309</v>
       </c>
@@ -6770,8 +6960,8 @@
       <c r="I115" s="26"/>
     </row>
     <row r="116" spans="1:9" ht="62.4">
-      <c r="A116" s="177"/>
-      <c r="B116" s="177"/>
+      <c r="A116" s="208"/>
+      <c r="B116" s="208"/>
       <c r="C116" s="34" t="s">
         <v>311</v>
       </c>
@@ -6789,8 +6979,8 @@
       <c r="I116" s="26"/>
     </row>
     <row r="117" spans="1:9" ht="62.4">
-      <c r="A117" s="177"/>
-      <c r="B117" s="177"/>
+      <c r="A117" s="208"/>
+      <c r="B117" s="208"/>
       <c r="C117" s="34" t="s">
         <v>313</v>
       </c>
@@ -6808,8 +6998,8 @@
       <c r="I117" s="26"/>
     </row>
     <row r="118" spans="1:9" ht="47.4">
-      <c r="A118" s="177"/>
-      <c r="B118" s="177"/>
+      <c r="A118" s="208"/>
+      <c r="B118" s="208"/>
       <c r="C118" s="67" t="s">
         <v>315</v>
       </c>
@@ -6827,8 +7017,8 @@
       <c r="I118" s="26"/>
     </row>
     <row r="119" spans="1:9" ht="47.4">
-      <c r="A119" s="178"/>
-      <c r="B119" s="178"/>
+      <c r="A119" s="209"/>
+      <c r="B119" s="209"/>
       <c r="C119" s="67" t="s">
         <v>317</v>
       </c>
@@ -6846,10 +7036,10 @@
       <c r="I119" s="26"/>
     </row>
     <row r="120" spans="1:9" ht="47.4">
-      <c r="A120" s="179">
+      <c r="A120" s="210">
         <v>28</v>
       </c>
-      <c r="B120" s="176" t="s">
+      <c r="B120" s="207" t="s">
         <v>319</v>
       </c>
       <c r="C120" s="67" t="s">
@@ -6869,8 +7059,8 @@
       <c r="I120" s="26"/>
     </row>
     <row r="121" spans="1:9" ht="47.4">
-      <c r="A121" s="177"/>
-      <c r="B121" s="177"/>
+      <c r="A121" s="208"/>
+      <c r="B121" s="208"/>
       <c r="C121" s="67" t="s">
         <v>322</v>
       </c>
@@ -6888,8 +7078,8 @@
       <c r="I121" s="26"/>
     </row>
     <row r="122" spans="1:9" ht="47.4">
-      <c r="A122" s="177"/>
-      <c r="B122" s="177"/>
+      <c r="A122" s="208"/>
+      <c r="B122" s="208"/>
       <c r="C122" s="67" t="s">
         <v>324</v>
       </c>
@@ -6907,8 +7097,8 @@
       <c r="I122" s="26"/>
     </row>
     <row r="123" spans="1:9" ht="31.8">
-      <c r="A123" s="177"/>
-      <c r="B123" s="177"/>
+      <c r="A123" s="208"/>
+      <c r="B123" s="208"/>
       <c r="C123" s="17" t="s">
         <v>326</v>
       </c>
@@ -6924,8 +7114,8 @@
       <c r="I123" s="26"/>
     </row>
     <row r="124" spans="1:9" ht="47.4">
-      <c r="A124" s="177"/>
-      <c r="B124" s="177"/>
+      <c r="A124" s="208"/>
+      <c r="B124" s="208"/>
       <c r="C124" s="17" t="s">
         <v>328</v>
       </c>
@@ -6943,8 +7133,8 @@
       <c r="I124" s="26"/>
     </row>
     <row r="125" spans="1:9" ht="47.4">
-      <c r="A125" s="177"/>
-      <c r="B125" s="177"/>
+      <c r="A125" s="208"/>
+      <c r="B125" s="208"/>
       <c r="C125" s="17" t="s">
         <v>330</v>
       </c>
@@ -6962,8 +7152,8 @@
       <c r="I125" s="26"/>
     </row>
     <row r="126" spans="1:9" ht="31.8">
-      <c r="A126" s="177"/>
-      <c r="B126" s="177"/>
+      <c r="A126" s="208"/>
+      <c r="B126" s="208"/>
       <c r="C126" s="17" t="s">
         <v>332</v>
       </c>
@@ -6981,8 +7171,8 @@
       <c r="I126" s="26"/>
     </row>
     <row r="127" spans="1:9" ht="31.2">
-      <c r="A127" s="177"/>
-      <c r="B127" s="177"/>
+      <c r="A127" s="208"/>
+      <c r="B127" s="208"/>
       <c r="C127" s="12" t="s">
         <v>334</v>
       </c>
@@ -7000,8 +7190,8 @@
       <c r="I127" s="26"/>
     </row>
     <row r="128" spans="1:9" ht="31.2">
-      <c r="A128" s="178"/>
-      <c r="B128" s="178"/>
+      <c r="A128" s="209"/>
+      <c r="B128" s="209"/>
       <c r="C128" s="9" t="s">
         <v>336</v>
       </c>
@@ -7019,10 +7209,10 @@
       <c r="I128" s="26"/>
     </row>
     <row r="129" spans="1:9" ht="31.2">
-      <c r="A129" s="179">
+      <c r="A129" s="210">
         <v>29</v>
       </c>
-      <c r="B129" s="176" t="s">
+      <c r="B129" s="207" t="s">
         <v>338</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -7044,8 +7234,8 @@
       <c r="I129" s="26"/>
     </row>
     <row r="130" spans="1:9" ht="46.8">
-      <c r="A130" s="177"/>
-      <c r="B130" s="177"/>
+      <c r="A130" s="208"/>
+      <c r="B130" s="208"/>
       <c r="C130" s="12" t="s">
         <v>342</v>
       </c>
@@ -7065,8 +7255,8 @@
       <c r="I130" s="26"/>
     </row>
     <row r="131" spans="1:9" ht="46.8">
-      <c r="A131" s="177"/>
-      <c r="B131" s="177"/>
+      <c r="A131" s="208"/>
+      <c r="B131" s="208"/>
       <c r="C131" s="12" t="s">
         <v>345</v>
       </c>
@@ -7086,8 +7276,8 @@
       <c r="I131" s="26"/>
     </row>
     <row r="132" spans="1:9" ht="31.2">
-      <c r="A132" s="177"/>
-      <c r="B132" s="177"/>
+      <c r="A132" s="208"/>
+      <c r="B132" s="208"/>
       <c r="C132" s="12" t="s">
         <v>348</v>
       </c>
@@ -7107,8 +7297,8 @@
       <c r="I132" s="26"/>
     </row>
     <row r="133" spans="1:9" ht="31.2">
-      <c r="A133" s="177"/>
-      <c r="B133" s="177"/>
+      <c r="A133" s="208"/>
+      <c r="B133" s="208"/>
       <c r="C133" s="12" t="s">
         <v>351</v>
       </c>
@@ -7128,8 +7318,8 @@
       <c r="I133" s="26"/>
     </row>
     <row r="134" spans="1:9" ht="46.8">
-      <c r="A134" s="178"/>
-      <c r="B134" s="178"/>
+      <c r="A134" s="209"/>
+      <c r="B134" s="209"/>
       <c r="C134" s="8" t="s">
         <v>354</v>
       </c>
@@ -7149,10 +7339,10 @@
       <c r="I134" s="26"/>
     </row>
     <row r="135" spans="1:9" ht="31.2">
-      <c r="A135" s="179">
+      <c r="A135" s="210">
         <v>30</v>
       </c>
-      <c r="B135" s="176" t="s">
+      <c r="B135" s="207" t="s">
         <v>357</v>
       </c>
       <c r="C135" s="34" t="s">
@@ -7170,8 +7360,8 @@
       <c r="I135" s="26"/>
     </row>
     <row r="136" spans="1:9" ht="31.2">
-      <c r="A136" s="177"/>
-      <c r="B136" s="177"/>
+      <c r="A136" s="208"/>
+      <c r="B136" s="208"/>
       <c r="C136" s="34" t="s">
         <v>360</v>
       </c>
@@ -7187,8 +7377,8 @@
       <c r="I136" s="26"/>
     </row>
     <row r="137" spans="1:9" ht="46.8">
-      <c r="A137" s="177"/>
-      <c r="B137" s="177"/>
+      <c r="A137" s="208"/>
+      <c r="B137" s="208"/>
       <c r="C137" s="34" t="s">
         <v>362</v>
       </c>
@@ -7206,8 +7396,8 @@
       <c r="I137" s="26"/>
     </row>
     <row r="138" spans="1:9" ht="46.8">
-      <c r="A138" s="177"/>
-      <c r="B138" s="177"/>
+      <c r="A138" s="208"/>
+      <c r="B138" s="208"/>
       <c r="C138" s="34" t="s">
         <v>364</v>
       </c>
@@ -7225,8 +7415,8 @@
       <c r="I138" s="26"/>
     </row>
     <row r="139" spans="1:9" ht="46.8">
-      <c r="A139" s="177"/>
-      <c r="B139" s="177"/>
+      <c r="A139" s="208"/>
+      <c r="B139" s="208"/>
       <c r="C139" s="34" t="s">
         <v>366</v>
       </c>
@@ -7244,8 +7434,8 @@
       <c r="I139" s="26"/>
     </row>
     <row r="140" spans="1:9" ht="46.8">
-      <c r="A140" s="177"/>
-      <c r="B140" s="177"/>
+      <c r="A140" s="208"/>
+      <c r="B140" s="208"/>
       <c r="C140" s="34" t="s">
         <v>368</v>
       </c>
@@ -7261,8 +7451,8 @@
       <c r="I140" s="26"/>
     </row>
     <row r="141" spans="1:9" ht="31.2">
-      <c r="A141" s="177"/>
-      <c r="B141" s="177"/>
+      <c r="A141" s="208"/>
+      <c r="B141" s="208"/>
       <c r="C141" s="34" t="s">
         <v>370</v>
       </c>
@@ -7278,8 +7468,8 @@
       <c r="I141" s="26"/>
     </row>
     <row r="142" spans="1:9" ht="31.2">
-      <c r="A142" s="178"/>
-      <c r="B142" s="178"/>
+      <c r="A142" s="209"/>
+      <c r="B142" s="209"/>
       <c r="C142" s="34" t="s">
         <v>372</v>
       </c>
@@ -7343,10 +7533,10 @@
       <c r="I144" s="26"/>
     </row>
     <row r="145" spans="1:9" ht="47.4">
-      <c r="A145" s="179">
+      <c r="A145" s="210">
         <v>33</v>
       </c>
-      <c r="B145" s="176" t="s">
+      <c r="B145" s="207" t="s">
         <v>382</v>
       </c>
       <c r="C145" s="17" t="s">
@@ -7368,8 +7558,8 @@
       <c r="I145" s="26"/>
     </row>
     <row r="146" spans="1:9" ht="47.4">
-      <c r="A146" s="177"/>
-      <c r="B146" s="177"/>
+      <c r="A146" s="208"/>
+      <c r="B146" s="208"/>
       <c r="C146" s="17" t="s">
         <v>386</v>
       </c>
@@ -7389,8 +7579,8 @@
       <c r="I146" s="26"/>
     </row>
     <row r="147" spans="1:9" ht="31.8">
-      <c r="A147" s="178"/>
-      <c r="B147" s="178"/>
+      <c r="A147" s="209"/>
+      <c r="B147" s="209"/>
       <c r="C147" s="17" t="s">
         <v>389</v>
       </c>
@@ -7408,10 +7598,10 @@
       <c r="I147" s="26"/>
     </row>
     <row r="148" spans="1:9" ht="62.4">
-      <c r="A148" s="179">
+      <c r="A148" s="210">
         <v>34</v>
       </c>
-      <c r="B148" s="176" t="s">
+      <c r="B148" s="207" t="s">
         <v>392</v>
       </c>
       <c r="C148" s="41" t="s">
@@ -7431,8 +7621,8 @@
       <c r="I148" s="26"/>
     </row>
     <row r="149" spans="1:9" ht="18">
-      <c r="A149" s="177"/>
-      <c r="B149" s="177"/>
+      <c r="A149" s="208"/>
+      <c r="B149" s="208"/>
       <c r="C149" s="41"/>
       <c r="D149" s="34"/>
       <c r="E149" s="10"/>
@@ -7446,8 +7636,8 @@
       <c r="I149" s="26"/>
     </row>
     <row r="150" spans="1:9" ht="18">
-      <c r="A150" s="177"/>
-      <c r="B150" s="177"/>
+      <c r="A150" s="208"/>
+      <c r="B150" s="208"/>
       <c r="C150" s="41"/>
       <c r="D150" s="34"/>
       <c r="E150" s="10"/>
@@ -7461,8 +7651,8 @@
       <c r="I150" s="26"/>
     </row>
     <row r="151" spans="1:9" ht="62.4">
-      <c r="A151" s="178"/>
-      <c r="B151" s="178"/>
+      <c r="A151" s="209"/>
+      <c r="B151" s="209"/>
       <c r="C151" s="41" t="s">
         <v>397</v>
       </c>
@@ -7479,11 +7669,11 @@
       <c r="H151" s="26"/>
       <c r="I151" s="26"/>
     </row>
-    <row r="152" spans="1:9" ht="78">
-      <c r="A152" s="179">
+    <row r="152" spans="1:9" ht="62.4">
+      <c r="A152" s="210">
         <v>35</v>
       </c>
-      <c r="B152" s="176" t="s">
+      <c r="B152" s="207" t="s">
         <v>399</v>
       </c>
       <c r="C152" s="34" t="s">
@@ -7501,8 +7691,8 @@
       <c r="I152" s="26"/>
     </row>
     <row r="153" spans="1:9" ht="31.2">
-      <c r="A153" s="177"/>
-      <c r="B153" s="177"/>
+      <c r="A153" s="208"/>
+      <c r="B153" s="208"/>
       <c r="C153" s="34" t="s">
         <v>402</v>
       </c>
@@ -7518,8 +7708,8 @@
       <c r="I153" s="26"/>
     </row>
     <row r="154" spans="1:9" ht="62.4">
-      <c r="A154" s="177"/>
-      <c r="B154" s="177"/>
+      <c r="A154" s="208"/>
+      <c r="B154" s="208"/>
       <c r="C154" s="41" t="s">
         <v>404</v>
       </c>
@@ -7537,8 +7727,8 @@
       <c r="I154" s="26"/>
     </row>
     <row r="155" spans="1:9" ht="46.8">
-      <c r="A155" s="178"/>
-      <c r="B155" s="178"/>
+      <c r="A155" s="209"/>
+      <c r="B155" s="209"/>
       <c r="C155" s="34" t="s">
         <v>406</v>
       </c>
@@ -7556,10 +7746,10 @@
       <c r="I155" s="36"/>
     </row>
     <row r="156" spans="1:9" ht="31.2">
-      <c r="A156" s="179">
+      <c r="A156" s="210">
         <v>36</v>
       </c>
-      <c r="B156" s="176" t="s">
+      <c r="B156" s="207" t="s">
         <v>408</v>
       </c>
       <c r="C156" s="34" t="s">
@@ -7577,8 +7767,8 @@
       <c r="I156" s="26"/>
     </row>
     <row r="157" spans="1:9" ht="31.2">
-      <c r="A157" s="177"/>
-      <c r="B157" s="177"/>
+      <c r="A157" s="208"/>
+      <c r="B157" s="208"/>
       <c r="C157" s="34" t="s">
         <v>411</v>
       </c>
@@ -7594,8 +7784,8 @@
       <c r="I157" s="26"/>
     </row>
     <row r="158" spans="1:9" ht="31.2">
-      <c r="A158" s="177"/>
-      <c r="B158" s="177"/>
+      <c r="A158" s="208"/>
+      <c r="B158" s="208"/>
       <c r="C158" s="34" t="s">
         <v>413</v>
       </c>
@@ -7611,8 +7801,8 @@
       <c r="I158" s="26"/>
     </row>
     <row r="159" spans="1:9" ht="31.8">
-      <c r="A159" s="178"/>
-      <c r="B159" s="178"/>
+      <c r="A159" s="209"/>
+      <c r="B159" s="209"/>
       <c r="C159" s="82" t="s">
         <v>415</v>
       </c>
@@ -7628,10 +7818,10 @@
       <c r="I159" s="26"/>
     </row>
     <row r="160" spans="1:9" ht="31.2">
-      <c r="A160" s="179">
+      <c r="A160" s="210">
         <v>37</v>
       </c>
-      <c r="B160" s="176" t="s">
+      <c r="B160" s="207" t="s">
         <v>417</v>
       </c>
       <c r="C160" s="34" t="s">
@@ -7651,8 +7841,8 @@
       <c r="I160" s="26"/>
     </row>
     <row r="161" spans="1:9" ht="46.8">
-      <c r="A161" s="177"/>
-      <c r="B161" s="177"/>
+      <c r="A161" s="208"/>
+      <c r="B161" s="208"/>
       <c r="C161" s="34" t="s">
         <v>420</v>
       </c>
@@ -7670,8 +7860,8 @@
       <c r="I161" s="26"/>
     </row>
     <row r="162" spans="1:9" ht="46.8">
-      <c r="A162" s="178"/>
-      <c r="B162" s="178"/>
+      <c r="A162" s="209"/>
+      <c r="B162" s="209"/>
       <c r="C162" s="34" t="s">
         <v>422</v>
       </c>
@@ -7689,10 +7879,10 @@
       <c r="I162" s="26"/>
     </row>
     <row r="163" spans="1:9" ht="31.2">
-      <c r="A163" s="179">
+      <c r="A163" s="210">
         <v>38</v>
       </c>
-      <c r="B163" s="176" t="s">
+      <c r="B163" s="207" t="s">
         <v>424</v>
       </c>
       <c r="C163" s="34" t="s">
@@ -7710,8 +7900,8 @@
       <c r="I163" s="26"/>
     </row>
     <row r="164" spans="1:9" ht="31.2">
-      <c r="A164" s="177"/>
-      <c r="B164" s="177"/>
+      <c r="A164" s="208"/>
+      <c r="B164" s="208"/>
       <c r="C164" s="34" t="s">
         <v>427</v>
       </c>
@@ -7727,8 +7917,8 @@
       <c r="I164" s="26"/>
     </row>
     <row r="165" spans="1:9" ht="46.8">
-      <c r="A165" s="177"/>
-      <c r="B165" s="177"/>
+      <c r="A165" s="208"/>
+      <c r="B165" s="208"/>
       <c r="C165" s="34" t="s">
         <v>429</v>
       </c>
@@ -7746,8 +7936,8 @@
       <c r="I165" s="26"/>
     </row>
     <row r="166" spans="1:9" ht="46.8">
-      <c r="A166" s="177"/>
-      <c r="B166" s="177"/>
+      <c r="A166" s="208"/>
+      <c r="B166" s="208"/>
       <c r="C166" s="34" t="s">
         <v>431</v>
       </c>
@@ -7765,8 +7955,8 @@
       <c r="I166" s="26"/>
     </row>
     <row r="167" spans="1:9" ht="31.2">
-      <c r="A167" s="177"/>
-      <c r="B167" s="177"/>
+      <c r="A167" s="208"/>
+      <c r="B167" s="208"/>
       <c r="C167" s="34" t="s">
         <v>433</v>
       </c>
@@ -7784,8 +7974,8 @@
       <c r="I167" s="26"/>
     </row>
     <row r="168" spans="1:9" ht="31.2">
-      <c r="A168" s="177"/>
-      <c r="B168" s="177"/>
+      <c r="A168" s="208"/>
+      <c r="B168" s="208"/>
       <c r="C168" s="34" t="s">
         <v>435</v>
       </c>
@@ -7803,8 +7993,8 @@
       <c r="I168" s="26"/>
     </row>
     <row r="169" spans="1:9" ht="46.8">
-      <c r="A169" s="177"/>
-      <c r="B169" s="177"/>
+      <c r="A169" s="208"/>
+      <c r="B169" s="208"/>
       <c r="C169" s="34" t="s">
         <v>437</v>
       </c>
@@ -7822,8 +8012,8 @@
       <c r="I169" s="26"/>
     </row>
     <row r="170" spans="1:9" ht="46.8">
-      <c r="A170" s="177"/>
-      <c r="B170" s="177"/>
+      <c r="A170" s="208"/>
+      <c r="B170" s="208"/>
       <c r="C170" s="34" t="s">
         <v>439</v>
       </c>
@@ -7841,8 +8031,8 @@
       <c r="I170" s="26"/>
     </row>
     <row r="171" spans="1:9" ht="62.4">
-      <c r="A171" s="177"/>
-      <c r="B171" s="177"/>
+      <c r="A171" s="208"/>
+      <c r="B171" s="208"/>
       <c r="C171" s="34" t="s">
         <v>441</v>
       </c>
@@ -7860,8 +8050,8 @@
       <c r="I171" s="26"/>
     </row>
     <row r="172" spans="1:9" ht="62.4">
-      <c r="A172" s="177"/>
-      <c r="B172" s="177"/>
+      <c r="A172" s="208"/>
+      <c r="B172" s="208"/>
       <c r="C172" s="34" t="s">
         <v>443</v>
       </c>
@@ -7879,8 +8069,8 @@
       <c r="I172" s="26"/>
     </row>
     <row r="173" spans="1:9" ht="62.4">
-      <c r="A173" s="177"/>
-      <c r="B173" s="177"/>
+      <c r="A173" s="208"/>
+      <c r="B173" s="208"/>
       <c r="C173" s="9" t="s">
         <v>445</v>
       </c>
@@ -7897,9 +8087,9 @@
       <c r="H173" s="26"/>
       <c r="I173" s="26"/>
     </row>
-    <row r="174" spans="1:9" ht="46.8">
-      <c r="A174" s="177"/>
-      <c r="B174" s="177"/>
+    <row r="174" spans="1:9" ht="31.2">
+      <c r="A174" s="208"/>
+      <c r="B174" s="208"/>
       <c r="C174" s="34" t="s">
         <v>447</v>
       </c>
@@ -7916,9 +8106,9 @@
       <c r="H174" s="26"/>
       <c r="I174" s="26"/>
     </row>
-    <row r="175" spans="1:9" ht="46.8">
-      <c r="A175" s="178"/>
-      <c r="B175" s="178"/>
+    <row r="175" spans="1:9" ht="31.2">
+      <c r="A175" s="209"/>
+      <c r="B175" s="209"/>
       <c r="C175" s="34" t="s">
         <v>449</v>
       </c>
@@ -8032,7 +8222,7 @@
     <mergeCell ref="B135:B142"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(C1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8045,26 +8235,1902 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B3EB21-ECD3-4FFE-A3A7-AEF064BB07DD}">
+  <dimension ref="A1:C175"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1">
+      <c r="A1" s="178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="180" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6">
+      <c r="A2" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="180">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6">
+      <c r="A3" s="213"/>
+      <c r="B3" s="182" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="180">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
+      <c r="A4" s="213"/>
+      <c r="B4" s="182" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="180">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6">
+      <c r="A5" s="213"/>
+      <c r="B5" s="183" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="180">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6">
+      <c r="A6" s="213"/>
+      <c r="B6" s="182" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="180">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6">
+      <c r="A7" s="213"/>
+      <c r="B7" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="180">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6">
+      <c r="A8" s="213"/>
+      <c r="B8" s="182" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="180">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6">
+      <c r="A9" s="213"/>
+      <c r="B9" s="184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="180">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6">
+      <c r="A10" s="213"/>
+      <c r="B10" s="182" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="180">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6">
+      <c r="A11" s="213"/>
+      <c r="B11" s="183" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="180">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6">
+      <c r="A12" s="213"/>
+      <c r="B12" s="182" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="180">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6">
+      <c r="A13" s="213"/>
+      <c r="B13" s="185" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="180">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6">
+      <c r="A14" s="213"/>
+      <c r="B14" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="180"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.6">
+      <c r="A15" s="213"/>
+      <c r="B15" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="180">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6">
+      <c r="A16" s="213"/>
+      <c r="B16" s="185" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="180">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6">
+      <c r="A17" s="213"/>
+      <c r="B17" s="184" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="180">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6">
+      <c r="A18" s="213"/>
+      <c r="B18" s="182" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="180">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6">
+      <c r="A19" s="214"/>
+      <c r="B19" s="183" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="180">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6">
+      <c r="A20" s="212" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="185" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="180">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6">
+      <c r="A21" s="215"/>
+      <c r="B21" s="182" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="180">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6">
+      <c r="A22" s="215"/>
+      <c r="B22" s="183" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="180">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6">
+      <c r="A23" s="215"/>
+      <c r="B23" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="180">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6">
+      <c r="A24" s="215"/>
+      <c r="B24" s="183" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="180"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.6">
+      <c r="A25" s="215"/>
+      <c r="B25" s="183" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="180">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6">
+      <c r="A26" s="215"/>
+      <c r="B26" s="183" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" s="180">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6">
+      <c r="A27" s="215"/>
+      <c r="B27" s="183" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="180">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6">
+      <c r="A28" s="215"/>
+      <c r="B28" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="180">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6">
+      <c r="A29" s="215"/>
+      <c r="B29" s="183" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="180">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6">
+      <c r="A30" s="215"/>
+      <c r="B30" s="183" t="s">
+        <v>385</v>
+      </c>
+      <c r="C30" s="180">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6">
+      <c r="A31" s="215"/>
+      <c r="B31" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="180">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6">
+      <c r="A32" s="215"/>
+      <c r="B32" s="183" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32" s="180">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6">
+      <c r="A33" s="215"/>
+      <c r="B33" s="183" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="180">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6">
+      <c r="A34" s="215"/>
+      <c r="B34" s="183" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="180">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6">
+      <c r="A35" s="215"/>
+      <c r="B35" s="183" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" s="180">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6">
+      <c r="A36" s="215"/>
+      <c r="B36" s="183" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" s="180"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.6">
+      <c r="A37" s="216"/>
+      <c r="B37" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="180">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6">
+      <c r="A38" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="182" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" s="180">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6">
+      <c r="A39" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="182" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="180">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6">
+      <c r="A40" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="183" t="s">
+        <v>394</v>
+      </c>
+      <c r="C40" s="180">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6">
+      <c r="A41" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="182" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="180">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6">
+      <c r="A42" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="184" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="180">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6">
+      <c r="A43" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="182" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43" s="180">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6">
+      <c r="A44" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="183" t="s">
+        <v>398</v>
+      </c>
+      <c r="C44" s="180">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6">
+      <c r="A45" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="182" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="180">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="190" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="191" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="180">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6">
+      <c r="A47" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="183" t="s">
+        <v>405</v>
+      </c>
+      <c r="C47" s="180">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6">
+      <c r="A48" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="180">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6">
+      <c r="A49" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="184" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="180">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6">
+      <c r="A50" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="182" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="180">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6">
+      <c r="A51" s="192" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="193" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="180">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6">
+      <c r="A52" s="189" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="183" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="180"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.6">
+      <c r="A53" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="183" t="s">
+        <v>301</v>
+      </c>
+      <c r="C53" s="180">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6">
+      <c r="A54" s="192" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="193" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" s="180">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.6">
+      <c r="A55" s="189" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="183" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="180">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.6">
+      <c r="A56" s="188" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="194" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="180">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6">
+      <c r="A57" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="183" t="s">
+        <v>428</v>
+      </c>
+      <c r="C57" s="180">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.6">
+      <c r="A58" s="189" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="183" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="180">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.6">
+      <c r="A59" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="180">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.6">
+      <c r="A60" s="192" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="193" t="s">
+        <v>337</v>
+      </c>
+      <c r="C60" s="180">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.6">
+      <c r="A61" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="182" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="180">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.6">
+      <c r="A62" s="188" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="185" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="180">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.6">
+      <c r="A63" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="182" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="180">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.6">
+      <c r="A64" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="182" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="180">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.6">
+      <c r="A65" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="185" t="s">
+        <v>377</v>
+      </c>
+      <c r="C65" s="180">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.6">
+      <c r="A66" s="195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="196" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="180">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.6">
+      <c r="A67" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="183" t="s">
+        <v>426</v>
+      </c>
+      <c r="C67" s="180">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.6">
+      <c r="A68" s="197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="196" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="180">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.6">
+      <c r="A69" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="182" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="180">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.6">
+      <c r="A70" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="185" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="180">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.6">
+      <c r="A71" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="183" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="180">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.6">
+      <c r="A72" s="195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="196" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" s="180">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.6">
+      <c r="A73" s="197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="196" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" s="180">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.6">
+      <c r="A74" s="195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="196" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="180">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.6">
+      <c r="A75" s="195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="196" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="180">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.6">
+      <c r="A76" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="182" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="180">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.6">
+      <c r="A77" s="195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="196" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77" s="180">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.6">
+      <c r="A78" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="185" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="180">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.6">
+      <c r="A79" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="182" t="s">
+        <v>446</v>
+      </c>
+      <c r="C79" s="180">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.6">
+      <c r="A80" s="186" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="180">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.6">
+      <c r="A81" s="186" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="187" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="180">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.6">
+      <c r="A82" s="197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="193" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" s="180">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.6">
+      <c r="A83" s="186" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="180">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.6">
+      <c r="A84" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="183" t="s">
+        <v>450</v>
+      </c>
+      <c r="C84" s="180">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.6">
+      <c r="A85" s="198" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="182" t="s">
+        <v>359</v>
+      </c>
+      <c r="C85" s="180">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.6">
+      <c r="A86" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="183" t="s">
+        <v>436</v>
+      </c>
+      <c r="C86" s="180">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.6">
+      <c r="A87" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="182" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="180">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.6">
+      <c r="A88" s="188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="182" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="180">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.6">
+      <c r="A89" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="180">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.6">
+      <c r="A90" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.6">
+      <c r="A91" s="199" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="194" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="180">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.6">
+      <c r="A92" s="188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="185" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="180">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.6">
+      <c r="A93" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="183" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" s="180">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.6">
+      <c r="A94" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="182" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="180">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.6">
+      <c r="A95" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="183" t="s">
+        <v>448</v>
+      </c>
+      <c r="C95" s="180">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.6">
+      <c r="A96" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="183" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="180">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.6">
+      <c r="A97" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="180">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.6">
+      <c r="A98" s="199" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="184" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="180">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.6">
+      <c r="A99" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="183" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" s="180">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.6">
+      <c r="A100" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="182" t="s">
+        <v>361</v>
+      </c>
+      <c r="C100" s="180">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.6">
+      <c r="A101" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="183" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="180">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.6">
+      <c r="A102" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" s="183" t="s">
+        <v>432</v>
+      </c>
+      <c r="C102" s="180">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.6">
+      <c r="A103" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="183" t="s">
+        <v>440</v>
+      </c>
+      <c r="C103" s="180">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.6">
+      <c r="A104" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" s="183" t="s">
+        <v>430</v>
+      </c>
+      <c r="C104" s="180">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.6">
+      <c r="A105" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" s="182" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105" s="180">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.6">
+      <c r="A106" s="186" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="187" t="s">
+        <v>416</v>
+      </c>
+      <c r="C106" s="180">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.6">
+      <c r="A107" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="183" t="s">
+        <v>412</v>
+      </c>
+      <c r="C107" s="180">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.6">
+      <c r="A108" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="183" t="s">
+        <v>438</v>
+      </c>
+      <c r="C108" s="180">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.6">
+      <c r="A109" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="182" t="s">
+        <v>251</v>
+      </c>
+      <c r="C109" s="180">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.6">
+      <c r="A110" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="182" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" s="180">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.6">
+      <c r="A111" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" s="182" t="s">
+        <v>401</v>
+      </c>
+      <c r="C111" s="180">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.6">
+      <c r="A112" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="185" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="180">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.6">
+      <c r="A113" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="182" t="s">
+        <v>253</v>
+      </c>
+      <c r="C113" s="180">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.6">
+      <c r="A114" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="182" t="s">
+        <v>363</v>
+      </c>
+      <c r="C114" s="180">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.6">
+      <c r="A115" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="182" t="s">
+        <v>367</v>
+      </c>
+      <c r="C115" s="180">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.6">
+      <c r="A116" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="183" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" s="180">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.6">
+      <c r="A117" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="186" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="180">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.6">
+      <c r="A118" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="185" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" s="180">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.6">
+      <c r="A119" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B119" s="182" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="180">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.6">
+      <c r="A120" s="188" t="s">
+        <v>72</v>
+      </c>
+      <c r="B120" s="182" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="180">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.6">
+      <c r="A121" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="185" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" s="180">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.6">
+      <c r="A122" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122" s="193" t="s">
+        <v>191</v>
+      </c>
+      <c r="C122" s="180">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.6">
+      <c r="A123" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" s="193" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" s="180">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.6">
+      <c r="A124" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" s="180">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.6">
+      <c r="A125" s="186" t="s">
+        <v>72</v>
+      </c>
+      <c r="B125" s="187" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="180">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.6">
+      <c r="A126" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="180">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.6">
+      <c r="A127" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="183" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" s="180">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.6">
+      <c r="A128" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128" s="183" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" s="180">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.6">
+      <c r="A129" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B129" s="182" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="180">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.6">
+      <c r="A130" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" s="180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.6">
+      <c r="A131" s="198" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="182" t="s">
+        <v>341</v>
+      </c>
+      <c r="C131" s="180">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.6">
+      <c r="A132" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" s="180">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.6">
+      <c r="A133" s="182" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" s="193" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" s="180">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.6">
+      <c r="A134" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" s="183" t="s">
+        <v>391</v>
+      </c>
+      <c r="C134" s="180">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.6">
+      <c r="A135" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" s="183" t="s">
+        <v>396</v>
+      </c>
+      <c r="C135" s="180">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.6">
+      <c r="A136" s="198" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="182" t="s">
+        <v>344</v>
+      </c>
+      <c r="C136" s="180">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.6">
+      <c r="A137" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" s="180">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.6">
+      <c r="A138" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="183" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138" s="180">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.6">
+      <c r="A139" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="183" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" s="180">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.6">
+      <c r="A140" s="198" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="182" t="s">
+        <v>350</v>
+      </c>
+      <c r="C140" s="180">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.6">
+      <c r="A141" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="182" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" s="180">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.6">
+      <c r="A142" s="198" t="s">
+        <v>22</v>
+      </c>
+      <c r="B142" s="182" t="s">
+        <v>347</v>
+      </c>
+      <c r="C142" s="180">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.6">
+      <c r="A143" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B143" s="182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="180">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.6">
+      <c r="A144" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" s="180">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.6">
+      <c r="A145" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" s="183" t="s">
+        <v>414</v>
+      </c>
+      <c r="C145" s="180">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.6">
+      <c r="A146" s="198" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="C146" s="180">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.6">
+      <c r="A147" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" s="183" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147" s="180">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.6">
+      <c r="A148" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="185" t="s">
+        <v>182</v>
+      </c>
+      <c r="C148" s="180">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.6">
+      <c r="A149" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="182" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149" s="180"/>
+    </row>
+    <row r="150" spans="1:3" ht="15.6">
+      <c r="A150" s="199" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" s="180">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.6">
+      <c r="A151" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="183" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" s="180">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.6">
+      <c r="A152" s="195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="183" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" s="180">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.6">
+      <c r="A153" s="198" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="180">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.6">
+      <c r="A154" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="183" t="s">
+        <v>205</v>
+      </c>
+      <c r="C154" s="180">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.6">
+      <c r="A155" s="195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="183" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="180">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.6">
+      <c r="A156" s="198" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="182" t="s">
+        <v>356</v>
+      </c>
+      <c r="C156" s="180">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.6">
+      <c r="A157" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="182" t="s">
+        <v>373</v>
+      </c>
+      <c r="C157" s="180">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.6">
+      <c r="A158" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="185" t="s">
+        <v>371</v>
+      </c>
+      <c r="C158" s="180">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.6">
+      <c r="A159" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="185" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" s="180">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.6">
+      <c r="A160" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="182" t="s">
+        <v>369</v>
+      </c>
+      <c r="C160" s="180">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.6">
+      <c r="A161" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="183" t="s">
+        <v>209</v>
+      </c>
+      <c r="C161" s="180">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.6">
+      <c r="A162" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B162" s="186" t="s">
+        <v>298</v>
+      </c>
+      <c r="C162" s="180">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.6">
+      <c r="A163" s="200" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163" s="183" t="s">
+        <v>421</v>
+      </c>
+      <c r="C163" s="180">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.6">
+      <c r="A164" s="200" t="s">
+        <v>146</v>
+      </c>
+      <c r="B164" s="183" t="s">
+        <v>423</v>
+      </c>
+      <c r="C164" s="180">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.6">
+      <c r="A165" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" s="183" t="s">
+        <v>145</v>
+      </c>
+      <c r="C165" s="180">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.6">
+      <c r="A166" s="200" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" s="183" t="s">
+        <v>419</v>
+      </c>
+      <c r="C166" s="180">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.6">
+      <c r="A167" s="194" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="183" t="s">
+        <v>407</v>
+      </c>
+      <c r="C167" s="180">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15.6">
+      <c r="A168" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="183" t="s">
+        <v>148</v>
+      </c>
+      <c r="C168" s="180">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.6">
+      <c r="A169" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="186" t="s">
+        <v>295</v>
+      </c>
+      <c r="C169" s="180">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.6">
+      <c r="A170" s="195" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="185" t="s">
+        <v>310</v>
+      </c>
+      <c r="C170" s="180">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.6">
+      <c r="A171" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B171" s="183" t="s">
+        <v>228</v>
+      </c>
+      <c r="C171" s="180">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15.6">
+      <c r="A172" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B172" s="183" t="s">
+        <v>262</v>
+      </c>
+      <c r="C172" s="180">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.6">
+      <c r="A173" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B173" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="C173" s="180">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15.6">
+      <c r="A174" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B174" s="183" t="s">
+        <v>230</v>
+      </c>
+      <c r="C174" s="180">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.6">
+      <c r="A175" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B175" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="C175" s="180">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C175">
+    <sortCondition ref="A2:A175"/>
+    <sortCondition ref="B2:B175"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7AB49C-AE6B-483C-A415-7427A2F0C86E}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="177" t="s">
         <v>1047</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="177" t="s">
         <v>1048</v>
       </c>
-      <c r="C1" s="182" t="s">
+      <c r="C1" s="177" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -8072,7 +10138,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="181">
+      <c r="B2" s="176">
         <v>45817</v>
       </c>
       <c r="C2">
@@ -8083,7 +10149,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="181">
+      <c r="B3" s="176">
         <v>45818</v>
       </c>
       <c r="C3">
@@ -8094,7 +10160,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="181">
+      <c r="B4" s="176">
         <v>45819</v>
       </c>
       <c r="C4">
@@ -8105,7 +10171,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="181">
+      <c r="B5" s="176">
         <v>45820</v>
       </c>
       <c r="C5">
@@ -8116,7 +10182,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="181">
+      <c r="B6" s="176">
         <v>45821</v>
       </c>
       <c r="C6">
@@ -8127,7 +10193,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="181">
+      <c r="B7" s="176">
         <v>45824</v>
       </c>
       <c r="C7">
@@ -8138,7 +10204,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="181">
+      <c r="B8" s="176">
         <v>45825</v>
       </c>
       <c r="C8">
@@ -8149,7 +10215,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="181">
+      <c r="B9" s="176">
         <v>45826</v>
       </c>
       <c r="C9">
@@ -8160,7 +10226,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="181">
+      <c r="B10" s="176">
         <v>45827</v>
       </c>
       <c r="C10">
@@ -8171,7 +10237,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="181">
+      <c r="B11" s="176">
         <v>45828</v>
       </c>
       <c r="C11">
@@ -8182,7 +10248,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="181">
+      <c r="B12" s="176">
         <v>45831</v>
       </c>
       <c r="C12">
@@ -8193,7 +10259,7 @@
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="181">
+      <c r="B13" s="176">
         <v>45817</v>
       </c>
       <c r="C13">
@@ -8204,7 +10270,7 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="181">
+      <c r="B14" s="176">
         <v>45818</v>
       </c>
       <c r="C14">
@@ -8215,7 +10281,7 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="181">
+      <c r="B15" s="176">
         <v>45819</v>
       </c>
       <c r="C15">
@@ -8226,7 +10292,7 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="181">
+      <c r="B16" s="176">
         <v>45820</v>
       </c>
       <c r="C16">
@@ -8237,7 +10303,7 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="181">
+      <c r="B17" s="176">
         <v>45821</v>
       </c>
       <c r="C17">
@@ -8248,7 +10314,7 @@
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="181">
+      <c r="B18" s="176">
         <v>45824</v>
       </c>
       <c r="C18">
@@ -8259,7 +10325,7 @@
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="181">
+      <c r="B19" s="176">
         <v>45825</v>
       </c>
       <c r="C19">
@@ -8270,7 +10336,7 @@
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="181">
+      <c r="B20" s="176">
         <v>45826</v>
       </c>
       <c r="C20">
@@ -8281,7 +10347,7 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="181">
+      <c r="B21" s="176">
         <v>45827</v>
       </c>
       <c r="C21">
@@ -8292,7 +10358,7 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="181">
+      <c r="B22" s="176">
         <v>45828</v>
       </c>
       <c r="C22">
@@ -8303,7 +10369,7 @@
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="181">
+      <c r="B23" s="176">
         <v>45831</v>
       </c>
       <c r="C23">
@@ -8316,7 +10382,2127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D38E5A2-D302-4448-922F-F30FC47FF37E}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="91.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6">
+      <c r="A1" s="201" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" s="177" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C1" s="177" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6">
+      <c r="A3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6">
+      <c r="A4" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="176">
+        <v>45819</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.2">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="176">
+        <v>45820</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.2">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="176">
+        <v>45821</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.2" hidden="1">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="176">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.2">
+      <c r="A8" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="176">
+        <v>45825</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.2" hidden="1">
+      <c r="A9" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="176">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.2">
+      <c r="A10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="176">
+        <v>45827</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="176">
+        <v>45828</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="176">
+        <v>45831</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6">
+      <c r="A13" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" hidden="1">
+      <c r="A14" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6">
+      <c r="A15" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.2">
+      <c r="A16" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.2" hidden="1">
+      <c r="A17" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="176">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.2" hidden="1">
+      <c r="A18" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="176">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.2" hidden="1">
+      <c r="A19" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="176">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.2">
+      <c r="A20" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="176">
+        <v>45824</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.2" hidden="1">
+      <c r="A21" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="176">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.2">
+      <c r="A22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="176">
+        <v>45826</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.2" hidden="1">
+      <c r="A23" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="176">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6">
+      <c r="A24" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="176">
+        <v>45828</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6">
+      <c r="A25" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="176">
+        <v>45831</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.2">
+      <c r="A26" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.2" hidden="1">
+      <c r="A27" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.2" hidden="1">
+      <c r="A28" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6">
+      <c r="A29" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.2">
+      <c r="A30" s="203" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.2" hidden="1">
+      <c r="A31" s="203" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="176">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.2" hidden="1">
+      <c r="A32" s="203" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="176">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6">
+      <c r="A33" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="176">
+        <v>45821</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.2" hidden="1">
+      <c r="A34" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="176">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.2" hidden="1">
+      <c r="A35" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="176">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.2" hidden="1">
+      <c r="A36" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="176">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.2" hidden="1">
+      <c r="A37" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="176">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.2">
+      <c r="A38" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="176">
+        <v>45828</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.2" hidden="1">
+      <c r="A39" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="176">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.2" hidden="1">
+      <c r="A40" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="176">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6">
+      <c r="A41" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" hidden="1">
+      <c r="A42" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="222"/>
+      <c r="C42" s="222"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" hidden="1">
+      <c r="A43" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="223"/>
+      <c r="C43" s="223"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.6">
+      <c r="A44" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" hidden="1">
+      <c r="A45" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6">
+      <c r="A46" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="176">
+        <v>45819</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.6">
+      <c r="A47" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="176">
+        <v>45820</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6">
+      <c r="A48" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="176">
+        <v>45821</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6">
+      <c r="A49" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="176">
+        <v>45824</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6">
+      <c r="A50" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="176">
+        <v>45825</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" hidden="1">
+      <c r="A51" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="176">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" hidden="1">
+      <c r="A52" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="176">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.6">
+      <c r="A53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="176">
+        <v>45828</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.2">
+      <c r="A54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="176">
+        <v>45831</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.2" hidden="1">
+      <c r="A55" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="176">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31.2" hidden="1">
+      <c r="A56" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.6">
+      <c r="A57" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.6">
+      <c r="A58" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.6">
+      <c r="A59" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="176">
+        <v>45819</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.6" hidden="1">
+      <c r="A60" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="176">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.6" hidden="1">
+      <c r="A61" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="176">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.6">
+      <c r="A62" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="176">
+        <v>45824</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="31.2">
+      <c r="A63" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="176">
+        <v>45825</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.6">
+      <c r="A64" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="176">
+        <v>45826</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.6">
+      <c r="A65" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="176">
+        <v>45827</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.6">
+      <c r="A66" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="176">
+        <v>45828</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.6" hidden="1">
+      <c r="A67" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="176">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="31.2">
+      <c r="A68" s="205" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.6" hidden="1">
+      <c r="A69" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.6" hidden="1">
+      <c r="A70" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="B70" s="217"/>
+      <c r="C70" s="217"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.6" hidden="1">
+      <c r="A71" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="219"/>
+      <c r="C71" s="219"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.6">
+      <c r="A72" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="31.2">
+      <c r="A73" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31.2" hidden="1">
+      <c r="A74" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="176">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="31.2">
+      <c r="A75" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="176">
+        <v>45820</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="31.2" hidden="1">
+      <c r="A76" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="176">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.6">
+      <c r="A77" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="176">
+        <v>45824</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.6" hidden="1">
+      <c r="A78" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="176">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.6">
+      <c r="A79" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="176">
+        <v>45826</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.6" hidden="1">
+      <c r="A80" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="176">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="31.2">
+      <c r="A81" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="176">
+        <v>45828</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="31.2">
+      <c r="A82" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="176">
+        <v>45831</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="31.2" hidden="1">
+      <c r="A83" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" s="176">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="31.2" hidden="1">
+      <c r="A84" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="31.2" hidden="1">
+      <c r="A85" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="220"/>
+      <c r="C85" s="220"/>
+    </row>
+    <row r="86" spans="1:4" ht="31.2">
+      <c r="A86" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="31.2">
+      <c r="A87" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="31.2">
+      <c r="A88" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="176">
+        <v>45819</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="31.2" hidden="1">
+      <c r="A89" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="176">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="46.8" hidden="1">
+      <c r="A90" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="176">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="46.8">
+      <c r="A91" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="176">
+        <v>45824</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.6">
+      <c r="A92" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="176">
+        <v>45825</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.6">
+      <c r="A93" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="176">
+        <v>45826</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31.2">
+      <c r="A94" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="176">
+        <v>45827</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="31.2">
+      <c r="A95" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="176">
+        <v>45828</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.6">
+      <c r="A96" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="176">
+        <v>45831</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="31.2" hidden="1">
+      <c r="A97" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" s="176">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.6" hidden="1">
+      <c r="A98" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.6">
+      <c r="A99" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.6">
+      <c r="A100" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.6">
+      <c r="A101" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="176">
+        <v>45819</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.6" hidden="1">
+      <c r="A102" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="176">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.6">
+      <c r="A103" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="176">
+        <v>45821</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="31.2">
+      <c r="A104" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.6">
+      <c r="A105" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.6">
+      <c r="A106" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="176">
+        <v>45819</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="31.2">
+      <c r="A107" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="176">
+        <v>45820</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.6" hidden="1">
+      <c r="A108" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="176">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="31.2" hidden="1">
+      <c r="A109" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="217"/>
+      <c r="C109" s="217"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.6" hidden="1">
+      <c r="A110" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="217"/>
+      <c r="C110" s="217"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.6" hidden="1">
+      <c r="A111" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="217"/>
+      <c r="C111" s="217"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.6" hidden="1">
+      <c r="A112" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="217"/>
+      <c r="C112" s="217"/>
+    </row>
+    <row r="113" spans="1:4" ht="31.2">
+      <c r="A113" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" s="217"/>
+      <c r="C113" s="217"/>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.6">
+      <c r="A114" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="B114" s="217"/>
+      <c r="C114" s="217"/>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.6">
+      <c r="A115" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" s="176">
+        <v>45826</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="31.2">
+      <c r="A116" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" s="176">
+        <v>45827</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="31.2" hidden="1">
+      <c r="A117" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" s="176">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.6">
+      <c r="A118" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.6" hidden="1">
+      <c r="A119" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="31.2">
+      <c r="A120" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="176">
+        <v>45819</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="31.2" hidden="1">
+      <c r="A121" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="176">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="31.2" hidden="1">
+      <c r="A122" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="176">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="31.2" hidden="1">
+      <c r="A123" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B123" s="217"/>
+      <c r="C123" s="217"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.6">
+      <c r="A124" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" s="218"/>
+      <c r="C124" s="218"/>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.6">
+      <c r="A125" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" s="176">
+        <v>45826</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.6">
+      <c r="A126" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" s="176">
+        <v>45827</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="31.2" hidden="1">
+      <c r="A127" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" s="176">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="31.2" hidden="1">
+      <c r="A128" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="176">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="31.2">
+      <c r="A129" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" s="176">
+        <v>45818</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.6" hidden="1">
+      <c r="A130" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" s="176">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="31.2">
+      <c r="A131" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" s="176">
+        <v>45820</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="31.2" hidden="1">
+      <c r="A132" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="176">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="31.2" hidden="1">
+      <c r="A133" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="B133" s="224"/>
+      <c r="C133" s="224"/>
+    </row>
+    <row r="134" spans="1:4" ht="31.2">
+      <c r="A134" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" s="176">
+        <v>45820</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="31.2">
+      <c r="A135" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" s="176">
+        <v>45821</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="31.2" hidden="1">
+      <c r="A136" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="176">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="31.2" hidden="1">
+      <c r="A137" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="176">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.6">
+      <c r="A138" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" s="176">
+        <v>45826</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="31.2">
+      <c r="A139" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="176">
+        <v>45827</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="31.2" hidden="1">
+      <c r="A140" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="176">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="31.2" hidden="1">
+      <c r="A141" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="176">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="31.2" hidden="1">
+      <c r="A142" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" s="176">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="31.2" hidden="1">
+      <c r="A143" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="31.2">
+      <c r="A144" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144" s="176">
+        <v>45819</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="31.2" hidden="1">
+      <c r="A145" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B145" s="217"/>
+      <c r="C145" s="217"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.6">
+      <c r="A146" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" s="176">
+        <v>45820</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.6" hidden="1">
+      <c r="A147" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" s="176">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.6" hidden="1">
+      <c r="A148" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" s="176">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="31.2">
+      <c r="A149" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" s="176">
+        <v>45825</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.6">
+      <c r="A150" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" s="176">
+        <v>45826</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.6">
+      <c r="A151" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" s="176">
+        <v>45827</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.6">
+      <c r="A152" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="176">
+        <v>45828</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="46.8">
+      <c r="A153" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" s="176">
+        <v>45831</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.6">
+      <c r="A154" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154" s="176">
+        <v>45817</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="31.2" hidden="1">
+      <c r="A155" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" s="176">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="31.2">
+      <c r="A156" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156" s="176">
+        <v>45819</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.6">
+      <c r="A157" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" s="176">
+        <v>45820</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="31.2">
+      <c r="A158" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" s="176">
+        <v>45821</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="31.2" hidden="1">
+      <c r="A159" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" s="176">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.6">
+      <c r="A160" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" s="176">
+        <v>45825</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.6">
+      <c r="A161" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" s="176">
+        <v>45826</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.6">
+      <c r="A162" s="202" t="s">
+        <v>415</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" s="176">
+        <v>45827</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.6">
+      <c r="A163" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" s="176">
+        <v>45828</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="31.2">
+      <c r="A164" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" s="176">
+        <v>45831</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="31.2" hidden="1">
+      <c r="A165" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" s="176">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.6">
+      <c r="A166" s="27"/>
+      <c r="C166" s="176"/>
+    </row>
+    <row r="167" spans="1:4" ht="15.6">
+      <c r="A167" s="204"/>
+      <c r="C167" s="176"/>
+    </row>
+    <row r="168" spans="1:4" ht="15.6">
+      <c r="A168" s="39"/>
+      <c r="B168" s="225"/>
+      <c r="C168" s="225"/>
+    </row>
+    <row r="169" spans="1:4" ht="15.6">
+      <c r="A169" s="41"/>
+      <c r="B169" s="224"/>
+      <c r="C169" s="224"/>
+    </row>
+    <row r="170" spans="1:4" ht="15.6">
+      <c r="A170" s="41"/>
+      <c r="B170" s="224"/>
+      <c r="C170" s="224"/>
+    </row>
+    <row r="171" spans="1:4" ht="15.6">
+      <c r="A171" s="41"/>
+      <c r="B171" s="224"/>
+      <c r="C171" s="224"/>
+    </row>
+    <row r="172" spans="1:4" ht="15.6">
+      <c r="A172" s="41"/>
+      <c r="B172" s="224"/>
+      <c r="C172" s="224"/>
+    </row>
+    <row r="173" spans="1:4" ht="15.6">
+      <c r="A173" s="206"/>
+      <c r="B173" s="226"/>
+      <c r="C173" s="226"/>
+    </row>
+    <row r="174" spans="1:4" ht="15.6">
+      <c r="A174" s="41"/>
+      <c r="B174" s="224"/>
+      <c r="C174" s="224"/>
+    </row>
+    <row r="175" spans="1:4" ht="15.6">
+      <c r="A175" s="41"/>
+      <c r="B175" s="224"/>
+      <c r="C175" s="224"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D165" xr:uid="{2D38E5A2-D302-4448-922F-F30FC47FF37E}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A176">
+    <sortCondition ref="A2:A176"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="Тема кваліфікаційної роботи українською мовою з RFP _x000a_https://software.nure.ua/rfp-2024-2025/" xr:uid="{CD02DE3C-2E8A-47E2-953D-A13E9E05E2D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R173"/>
   <sheetViews>
@@ -16693,7 +20879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -18920,7 +23106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -21147,7 +25333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/Data/2024-2025_ПІ_Бакалаври.xlsx
+++ b/Data/2024-2025_ПІ_Бакалаври.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PY\DefenseSchedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD72764E-4595-4064-B45A-47B9BC6BAE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B736A8B1-6A14-434D-907C-38296BF0B962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="288" windowWidth="21828" windowHeight="11952" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Денне" sheetId="1" r:id="rId1"/>
     <sheet name="Рейтинг" sheetId="7" r:id="rId2"/>
-    <sheet name="Дні захисту" sheetId="6" r:id="rId3"/>
+    <sheet name="ДЕК" sheetId="6" r:id="rId3"/>
     <sheet name="Бажання" sheetId="8" r:id="rId4"/>
     <sheet name="Сортування за ПІБ" sheetId="2" state="hidden" r:id="rId5"/>
     <sheet name="Сортування наказу" sheetId="3" state="hidden" r:id="rId6"/>
@@ -3774,7 +3774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4330,16 +4330,37 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4352,36 +4373,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -4640,7 +4632,7 @@
   <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
@@ -4684,10 +4676,10 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="46.8">
-      <c r="A2" s="210">
-        <v>1</v>
-      </c>
-      <c r="B2" s="211" t="s">
+      <c r="A2" s="214">
+        <v>1</v>
+      </c>
+      <c r="B2" s="217" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4709,8 +4701,8 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="31.2">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="215"/>
       <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
@@ -4726,8 +4718,8 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="209"/>
-      <c r="B4" s="209"/>
+      <c r="A4" s="216"/>
+      <c r="B4" s="216"/>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
@@ -4743,10 +4735,10 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="46.8">
-      <c r="A5" s="210">
+      <c r="A5" s="214">
         <v>2</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="217" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4764,8 +4756,8 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="31.2">
-      <c r="A6" s="208"/>
-      <c r="B6" s="208"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="215"/>
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
@@ -4783,8 +4775,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="31.2">
-      <c r="A7" s="209"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="216"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
@@ -4802,10 +4794,10 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="31.2">
-      <c r="A8" s="210">
+      <c r="A8" s="214">
         <v>3</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="217" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -4827,8 +4819,8 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="31.2">
-      <c r="A9" s="208"/>
-      <c r="B9" s="208"/>
+      <c r="A9" s="215"/>
+      <c r="B9" s="215"/>
       <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
@@ -4848,8 +4840,8 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="31.2">
-      <c r="A10" s="208"/>
-      <c r="B10" s="208"/>
+      <c r="A10" s="215"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="17" t="s">
         <v>33</v>
       </c>
@@ -4869,8 +4861,8 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="31.2">
-      <c r="A11" s="208"/>
-      <c r="B11" s="208"/>
+      <c r="A11" s="215"/>
+      <c r="B11" s="215"/>
       <c r="C11" s="8" t="s">
         <v>36</v>
       </c>
@@ -4888,8 +4880,8 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="31.2">
-      <c r="A12" s="208"/>
-      <c r="B12" s="208"/>
+      <c r="A12" s="215"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
@@ -4907,8 +4899,8 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="31.2">
-      <c r="A13" s="208"/>
-      <c r="B13" s="208"/>
+      <c r="A13" s="215"/>
+      <c r="B13" s="215"/>
       <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
@@ -4926,8 +4918,8 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="46.8">
-      <c r="A14" s="209"/>
-      <c r="B14" s="209"/>
+      <c r="A14" s="216"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
@@ -4945,10 +4937,10 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="31.2">
-      <c r="A15" s="210">
+      <c r="A15" s="214">
         <v>4</v>
       </c>
-      <c r="B15" s="211" t="s">
+      <c r="B15" s="217" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -4968,8 +4960,8 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="31.2">
-      <c r="A16" s="208"/>
-      <c r="B16" s="208"/>
+      <c r="A16" s="215"/>
+      <c r="B16" s="215"/>
       <c r="C16" s="21" t="s">
         <v>51</v>
       </c>
@@ -4987,8 +4979,8 @@
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="31.2">
-      <c r="A17" s="209"/>
-      <c r="B17" s="209"/>
+      <c r="A17" s="216"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="22" t="s">
         <v>54</v>
       </c>
@@ -5006,10 +4998,10 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="62.4">
-      <c r="A18" s="210">
+      <c r="A18" s="214">
         <v>5</v>
       </c>
-      <c r="B18" s="207" t="s">
+      <c r="B18" s="218" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -5029,8 +5021,8 @@
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="62.4">
-      <c r="A19" s="208"/>
-      <c r="B19" s="208"/>
+      <c r="A19" s="215"/>
+      <c r="B19" s="215"/>
       <c r="C19" s="9" t="s">
         <v>59</v>
       </c>
@@ -5048,8 +5040,8 @@
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="208"/>
-      <c r="B20" s="208"/>
+      <c r="A20" s="215"/>
+      <c r="B20" s="215"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
@@ -5063,8 +5055,8 @@
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="208"/>
-      <c r="B21" s="208"/>
+      <c r="A21" s="215"/>
+      <c r="B21" s="215"/>
       <c r="C21" s="12" t="s">
         <v>62</v>
       </c>
@@ -5080,8 +5072,8 @@
       <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="209"/>
-      <c r="B22" s="209"/>
+      <c r="A22" s="216"/>
+      <c r="B22" s="216"/>
       <c r="C22" s="12" t="s">
         <v>64</v>
       </c>
@@ -5097,10 +5089,10 @@
       <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="210">
+      <c r="A23" s="214">
         <v>6</v>
       </c>
-      <c r="B23" s="207" t="s">
+      <c r="B23" s="218" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -5118,8 +5110,8 @@
       <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="208"/>
-      <c r="B24" s="208"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="9" t="s">
         <v>70</v>
       </c>
@@ -5135,8 +5127,8 @@
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="31.2">
-      <c r="A25" s="208"/>
-      <c r="B25" s="208"/>
+      <c r="A25" s="215"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="12" t="s">
         <v>73</v>
       </c>
@@ -5154,8 +5146,8 @@
       <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" ht="31.2">
-      <c r="A26" s="209"/>
-      <c r="B26" s="209"/>
+      <c r="A26" s="216"/>
+      <c r="B26" s="216"/>
       <c r="C26" s="12" t="s">
         <v>75</v>
       </c>
@@ -5173,10 +5165,10 @@
       <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" ht="31.2">
-      <c r="A27" s="210">
+      <c r="A27" s="214">
         <v>7</v>
       </c>
-      <c r="B27" s="207" t="s">
+      <c r="B27" s="218" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -5196,8 +5188,8 @@
       <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="209"/>
-      <c r="B28" s="209"/>
+      <c r="A28" s="216"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="34" t="s">
         <v>80</v>
       </c>
@@ -5213,10 +5205,10 @@
       <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" ht="46.8">
-      <c r="A29" s="210">
+      <c r="A29" s="214">
         <v>8</v>
       </c>
-      <c r="B29" s="207" t="s">
+      <c r="B29" s="218" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -5234,8 +5226,8 @@
       <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" ht="18">
-      <c r="A30" s="209"/>
-      <c r="B30" s="209"/>
+      <c r="A30" s="216"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="37"/>
       <c r="D30" s="35"/>
       <c r="E30" s="10"/>
@@ -5249,10 +5241,10 @@
       <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="31.2">
-      <c r="A31" s="210">
+      <c r="A31" s="214">
         <v>9</v>
       </c>
-      <c r="B31" s="207" t="s">
+      <c r="B31" s="218" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -5272,8 +5264,8 @@
       <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:9" ht="31.2">
-      <c r="A32" s="208"/>
-      <c r="B32" s="208"/>
+      <c r="A32" s="215"/>
+      <c r="B32" s="215"/>
       <c r="C32" s="9" t="s">
         <v>90</v>
       </c>
@@ -5291,8 +5283,8 @@
       <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" ht="31.2">
-      <c r="A33" s="209"/>
-      <c r="B33" s="209"/>
+      <c r="A33" s="216"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="34" t="s">
         <v>92</v>
       </c>
@@ -5308,10 +5300,10 @@
       <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" ht="31.8">
-      <c r="A34" s="210">
+      <c r="A34" s="214">
         <v>10</v>
       </c>
-      <c r="B34" s="207" t="s">
+      <c r="B34" s="218" t="s">
         <v>94</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -5331,8 +5323,8 @@
       <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" ht="31.8">
-      <c r="A35" s="208"/>
-      <c r="B35" s="208"/>
+      <c r="A35" s="215"/>
+      <c r="B35" s="215"/>
       <c r="C35" s="17" t="s">
         <v>97</v>
       </c>
@@ -5350,8 +5342,8 @@
       <c r="I35" s="26"/>
     </row>
     <row r="36" spans="1:9" ht="31.8">
-      <c r="A36" s="208"/>
-      <c r="B36" s="208"/>
+      <c r="A36" s="215"/>
+      <c r="B36" s="215"/>
       <c r="C36" s="17" t="s">
         <v>99</v>
       </c>
@@ -5369,8 +5361,8 @@
       <c r="I36" s="26"/>
     </row>
     <row r="37" spans="1:9" ht="31.8">
-      <c r="A37" s="208"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="215"/>
+      <c r="B37" s="215"/>
       <c r="C37" s="17" t="s">
         <v>101</v>
       </c>
@@ -5388,8 +5380,8 @@
       <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:9" ht="31.8">
-      <c r="A38" s="208"/>
-      <c r="B38" s="208"/>
+      <c r="A38" s="215"/>
+      <c r="B38" s="215"/>
       <c r="C38" s="17" t="s">
         <v>103</v>
       </c>
@@ -5407,8 +5399,8 @@
       <c r="I38" s="26"/>
     </row>
     <row r="39" spans="1:9" ht="31.8">
-      <c r="A39" s="209"/>
-      <c r="B39" s="209"/>
+      <c r="A39" s="216"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="17" t="s">
         <v>105</v>
       </c>
@@ -5426,10 +5418,10 @@
       <c r="I39" s="26"/>
     </row>
     <row r="40" spans="1:9" ht="18">
-      <c r="A40" s="210">
+      <c r="A40" s="214">
         <v>11</v>
       </c>
-      <c r="B40" s="207" t="s">
+      <c r="B40" s="218" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="39"/>
@@ -5447,8 +5439,8 @@
       <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="208"/>
-      <c r="B41" s="208"/>
+      <c r="A41" s="215"/>
+      <c r="B41" s="215"/>
       <c r="C41" s="41"/>
       <c r="D41" s="34"/>
       <c r="E41" s="10">
@@ -5464,8 +5456,8 @@
       <c r="I41" s="26"/>
     </row>
     <row r="42" spans="1:9" ht="18">
-      <c r="A42" s="209"/>
-      <c r="B42" s="209"/>
+      <c r="A42" s="216"/>
+      <c r="B42" s="216"/>
       <c r="C42" s="41"/>
       <c r="D42" s="34"/>
       <c r="E42" s="10">
@@ -5481,10 +5473,10 @@
       <c r="I42" s="26"/>
     </row>
     <row r="43" spans="1:9" ht="31.2">
-      <c r="A43" s="210">
+      <c r="A43" s="214">
         <v>12</v>
       </c>
-      <c r="B43" s="207" t="s">
+      <c r="B43" s="218" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -5506,8 +5498,8 @@
       <c r="I43" s="26"/>
     </row>
     <row r="44" spans="1:9" ht="46.8">
-      <c r="A44" s="209"/>
-      <c r="B44" s="209"/>
+      <c r="A44" s="216"/>
+      <c r="B44" s="216"/>
       <c r="C44" s="34" t="s">
         <v>115</v>
       </c>
@@ -5527,10 +5519,10 @@
       <c r="I44" s="26"/>
     </row>
     <row r="45" spans="1:9" ht="31.2">
-      <c r="A45" s="210">
+      <c r="A45" s="214">
         <v>13</v>
       </c>
-      <c r="B45" s="207" t="s">
+      <c r="B45" s="218" t="s">
         <v>118</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -5552,8 +5544,8 @@
       <c r="I45" s="26"/>
     </row>
     <row r="46" spans="1:9" ht="31.2">
-      <c r="A46" s="208"/>
-      <c r="B46" s="208"/>
+      <c r="A46" s="215"/>
+      <c r="B46" s="215"/>
       <c r="C46" s="34" t="s">
         <v>122</v>
       </c>
@@ -5571,8 +5563,8 @@
       <c r="I46" s="26"/>
     </row>
     <row r="47" spans="1:9" ht="46.8">
-      <c r="A47" s="208"/>
-      <c r="B47" s="208"/>
+      <c r="A47" s="215"/>
+      <c r="B47" s="215"/>
       <c r="C47" s="34" t="s">
         <v>125</v>
       </c>
@@ -5592,8 +5584,8 @@
       <c r="I47" s="26"/>
     </row>
     <row r="48" spans="1:9" ht="31.2">
-      <c r="A48" s="208"/>
-      <c r="B48" s="208"/>
+      <c r="A48" s="215"/>
+      <c r="B48" s="215"/>
       <c r="C48" s="34" t="s">
         <v>128</v>
       </c>
@@ -5611,8 +5603,8 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" ht="31.2">
-      <c r="A49" s="208"/>
-      <c r="B49" s="208"/>
+      <c r="A49" s="215"/>
+      <c r="B49" s="215"/>
       <c r="C49" s="34" t="s">
         <v>131</v>
       </c>
@@ -5630,8 +5622,8 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A50" s="208"/>
-      <c r="B50" s="208"/>
+      <c r="A50" s="215"/>
+      <c r="B50" s="215"/>
       <c r="C50" s="34" t="s">
         <v>134</v>
       </c>
@@ -5651,8 +5643,8 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" ht="62.4">
-      <c r="A51" s="208"/>
-      <c r="B51" s="208"/>
+      <c r="A51" s="215"/>
+      <c r="B51" s="215"/>
       <c r="C51" s="33" t="s">
         <v>137</v>
       </c>
@@ -5670,8 +5662,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="46.8">
-      <c r="A52" s="209"/>
-      <c r="B52" s="209"/>
+      <c r="A52" s="216"/>
+      <c r="B52" s="216"/>
       <c r="C52" s="33" t="s">
         <v>140</v>
       </c>
@@ -5689,10 +5681,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="31.2">
-      <c r="A53" s="210">
+      <c r="A53" s="214">
         <v>14</v>
       </c>
-      <c r="B53" s="207" t="s">
+      <c r="B53" s="218" t="s">
         <v>143</v>
       </c>
       <c r="C53" s="35" t="s">
@@ -5712,8 +5704,8 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" ht="31.2">
-      <c r="A54" s="209"/>
-      <c r="B54" s="209"/>
+      <c r="A54" s="216"/>
+      <c r="B54" s="216"/>
       <c r="C54" s="35" t="s">
         <v>147</v>
       </c>
@@ -5731,10 +5723,10 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="62.4">
-      <c r="A55" s="210">
+      <c r="A55" s="214">
         <v>15</v>
       </c>
-      <c r="B55" s="207" t="s">
+      <c r="B55" s="218" t="s">
         <v>149</v>
       </c>
       <c r="C55" s="34" t="s">
@@ -5754,8 +5746,8 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" ht="46.8">
-      <c r="A56" s="208"/>
-      <c r="B56" s="208"/>
+      <c r="A56" s="215"/>
+      <c r="B56" s="215"/>
       <c r="C56" s="34" t="s">
         <v>152</v>
       </c>
@@ -5771,8 +5763,8 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" ht="46.8">
-      <c r="A57" s="209"/>
-      <c r="B57" s="209"/>
+      <c r="A57" s="216"/>
+      <c r="B57" s="216"/>
       <c r="C57" s="34" t="s">
         <v>154</v>
       </c>
@@ -5788,10 +5780,10 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="18">
-      <c r="A58" s="210">
+      <c r="A58" s="214">
         <v>16</v>
       </c>
-      <c r="B58" s="207" t="s">
+      <c r="B58" s="218" t="s">
         <v>156</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -5813,8 +5805,8 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" ht="18">
-      <c r="A59" s="208"/>
-      <c r="B59" s="208"/>
+      <c r="A59" s="215"/>
+      <c r="B59" s="215"/>
       <c r="C59" s="41" t="s">
         <v>157</v>
       </c>
@@ -5834,8 +5826,8 @@
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="18">
-      <c r="A60" s="208"/>
-      <c r="B60" s="208"/>
+      <c r="A60" s="215"/>
+      <c r="B60" s="215"/>
       <c r="C60" s="41" t="s">
         <v>157</v>
       </c>
@@ -5855,8 +5847,8 @@
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:9" ht="31.2">
-      <c r="A61" s="208"/>
-      <c r="B61" s="208"/>
+      <c r="A61" s="215"/>
+      <c r="B61" s="215"/>
       <c r="C61" s="41" t="s">
         <v>162</v>
       </c>
@@ -5876,8 +5868,8 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" ht="31.2">
-      <c r="A62" s="208"/>
-      <c r="B62" s="208"/>
+      <c r="A62" s="215"/>
+      <c r="B62" s="215"/>
       <c r="C62" s="41" t="s">
         <v>162</v>
       </c>
@@ -5897,8 +5889,8 @@
       <c r="I62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="31.2">
-      <c r="A63" s="208"/>
-      <c r="B63" s="208"/>
+      <c r="A63" s="215"/>
+      <c r="B63" s="215"/>
       <c r="C63" s="34" t="s">
         <v>167</v>
       </c>
@@ -5916,8 +5908,8 @@
       <c r="I63" s="26"/>
     </row>
     <row r="64" spans="1:9" ht="18">
-      <c r="A64" s="208"/>
-      <c r="B64" s="208"/>
+      <c r="A64" s="215"/>
+      <c r="B64" s="215"/>
       <c r="C64" s="34" t="s">
         <v>170</v>
       </c>
@@ -5935,8 +5927,8 @@
       <c r="I64" s="26"/>
     </row>
     <row r="65" spans="1:9" ht="18">
-      <c r="A65" s="209"/>
-      <c r="B65" s="209"/>
+      <c r="A65" s="216"/>
+      <c r="B65" s="216"/>
       <c r="C65" s="34" t="s">
         <v>173</v>
       </c>
@@ -5954,10 +5946,10 @@
       <c r="I65" s="26"/>
     </row>
     <row r="66" spans="1:9" ht="31.2">
-      <c r="A66" s="210">
+      <c r="A66" s="214">
         <v>17</v>
       </c>
-      <c r="B66" s="207" t="s">
+      <c r="B66" s="218" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -5977,8 +5969,8 @@
       <c r="I66" s="26"/>
     </row>
     <row r="67" spans="1:9" ht="31.2">
-      <c r="A67" s="208"/>
-      <c r="B67" s="208"/>
+      <c r="A67" s="215"/>
+      <c r="B67" s="215"/>
       <c r="C67" s="14" t="s">
         <v>180</v>
       </c>
@@ -5996,8 +5988,8 @@
       <c r="I67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="31.2">
-      <c r="A68" s="208"/>
-      <c r="B68" s="208"/>
+      <c r="A68" s="215"/>
+      <c r="B68" s="215"/>
       <c r="C68" s="51" t="s">
         <v>183</v>
       </c>
@@ -6015,8 +6007,8 @@
       <c r="I68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="31.2">
-      <c r="A69" s="208"/>
-      <c r="B69" s="208"/>
+      <c r="A69" s="215"/>
+      <c r="B69" s="215"/>
       <c r="C69" s="34" t="s">
         <v>186</v>
       </c>
@@ -6036,8 +6028,8 @@
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="31.2">
-      <c r="A70" s="209"/>
-      <c r="B70" s="209"/>
+      <c r="A70" s="216"/>
+      <c r="B70" s="216"/>
       <c r="C70" s="54" t="s">
         <v>189</v>
       </c>
@@ -6057,10 +6049,10 @@
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="1:9" ht="31.2">
-      <c r="A71" s="210">
+      <c r="A71" s="214">
         <v>18</v>
       </c>
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="218" t="s">
         <v>192</v>
       </c>
       <c r="C71" s="34" t="s">
@@ -6080,8 +6072,8 @@
       <c r="I71" s="26"/>
     </row>
     <row r="72" spans="1:9" ht="46.8">
-      <c r="A72" s="208"/>
-      <c r="B72" s="208"/>
+      <c r="A72" s="215"/>
+      <c r="B72" s="215"/>
       <c r="C72" s="34" t="s">
         <v>196</v>
       </c>
@@ -6101,8 +6093,8 @@
       <c r="I72" s="26"/>
     </row>
     <row r="73" spans="1:9" ht="46.8">
-      <c r="A73" s="209"/>
-      <c r="B73" s="209"/>
+      <c r="A73" s="216"/>
+      <c r="B73" s="216"/>
       <c r="C73" s="34" t="s">
         <v>199</v>
       </c>
@@ -6122,10 +6114,10 @@
       <c r="I73" s="26"/>
     </row>
     <row r="74" spans="1:9" ht="46.8">
-      <c r="A74" s="210">
+      <c r="A74" s="214">
         <v>19</v>
       </c>
-      <c r="B74" s="207" t="s">
+      <c r="B74" s="218" t="s">
         <v>201</v>
       </c>
       <c r="C74" s="34" t="s">
@@ -6143,8 +6135,8 @@
       <c r="I74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="31.8">
-      <c r="A75" s="208"/>
-      <c r="B75" s="208"/>
+      <c r="A75" s="215"/>
+      <c r="B75" s="215"/>
       <c r="C75" s="56" t="s">
         <v>204</v>
       </c>
@@ -6160,8 +6152,8 @@
       <c r="I75" s="26"/>
     </row>
     <row r="76" spans="1:9" ht="31.2">
-      <c r="A76" s="208"/>
-      <c r="B76" s="208"/>
+      <c r="A76" s="215"/>
+      <c r="B76" s="215"/>
       <c r="C76" s="34" t="s">
         <v>206</v>
       </c>
@@ -6177,8 +6169,8 @@
       <c r="I76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="31.2">
-      <c r="A77" s="209"/>
-      <c r="B77" s="209"/>
+      <c r="A77" s="216"/>
+      <c r="B77" s="216"/>
       <c r="C77" s="34" t="s">
         <v>208</v>
       </c>
@@ -6194,10 +6186,10 @@
       <c r="I77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="31.2">
-      <c r="A78" s="210">
+      <c r="A78" s="214">
         <v>20</v>
       </c>
-      <c r="B78" s="207" t="s">
+      <c r="B78" s="218" t="s">
         <v>210</v>
       </c>
       <c r="C78" s="34" t="s">
@@ -6217,8 +6209,8 @@
       <c r="I78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="46.8">
-      <c r="A79" s="208"/>
-      <c r="B79" s="208"/>
+      <c r="A79" s="215"/>
+      <c r="B79" s="215"/>
       <c r="C79" s="34" t="s">
         <v>213</v>
       </c>
@@ -6236,8 +6228,8 @@
       <c r="I79" s="26"/>
     </row>
     <row r="80" spans="1:9" ht="31.2">
-      <c r="A80" s="208"/>
-      <c r="B80" s="208"/>
+      <c r="A80" s="215"/>
+      <c r="B80" s="215"/>
       <c r="C80" s="34" t="s">
         <v>215</v>
       </c>
@@ -6255,8 +6247,8 @@
       <c r="I80" s="26"/>
     </row>
     <row r="81" spans="1:9" ht="31.2">
-      <c r="A81" s="208"/>
-      <c r="B81" s="208"/>
+      <c r="A81" s="215"/>
+      <c r="B81" s="215"/>
       <c r="C81" s="34" t="s">
         <v>217</v>
       </c>
@@ -6274,8 +6266,8 @@
       <c r="I81" s="26"/>
     </row>
     <row r="82" spans="1:9" ht="31.2">
-      <c r="A82" s="208"/>
-      <c r="B82" s="208"/>
+      <c r="A82" s="215"/>
+      <c r="B82" s="215"/>
       <c r="C82" s="34" t="s">
         <v>219</v>
       </c>
@@ -6293,8 +6285,8 @@
       <c r="I82" s="26"/>
     </row>
     <row r="83" spans="1:9" ht="46.8">
-      <c r="A83" s="208"/>
-      <c r="B83" s="208"/>
+      <c r="A83" s="215"/>
+      <c r="B83" s="215"/>
       <c r="C83" s="34" t="s">
         <v>221</v>
       </c>
@@ -6312,8 +6304,8 @@
       <c r="I83" s="26"/>
     </row>
     <row r="84" spans="1:9" ht="31.2">
-      <c r="A84" s="208"/>
-      <c r="B84" s="208"/>
+      <c r="A84" s="215"/>
+      <c r="B84" s="215"/>
       <c r="C84" s="34" t="s">
         <v>223</v>
       </c>
@@ -6329,8 +6321,8 @@
       <c r="I84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="46.8">
-      <c r="A85" s="209"/>
-      <c r="B85" s="209"/>
+      <c r="A85" s="216"/>
+      <c r="B85" s="216"/>
       <c r="C85" s="34" t="s">
         <v>225</v>
       </c>
@@ -6346,10 +6338,10 @@
       <c r="I85" s="26"/>
     </row>
     <row r="86" spans="1:9" ht="18">
-      <c r="A86" s="210">
+      <c r="A86" s="214">
         <v>22</v>
       </c>
-      <c r="B86" s="207" t="s">
+      <c r="B86" s="218" t="s">
         <v>227</v>
       </c>
       <c r="C86" s="41"/>
@@ -6365,8 +6357,8 @@
       <c r="I86" s="26"/>
     </row>
     <row r="87" spans="1:9" ht="18">
-      <c r="A87" s="208"/>
-      <c r="B87" s="208"/>
+      <c r="A87" s="215"/>
+      <c r="B87" s="215"/>
       <c r="C87" s="41"/>
       <c r="D87" s="34"/>
       <c r="E87" s="10"/>
@@ -6380,8 +6372,8 @@
       <c r="I87" s="26"/>
     </row>
     <row r="88" spans="1:9" ht="18">
-      <c r="A88" s="209"/>
-      <c r="B88" s="209"/>
+      <c r="A88" s="216"/>
+      <c r="B88" s="216"/>
       <c r="C88" s="58"/>
       <c r="D88" s="34"/>
       <c r="E88" s="10"/>
@@ -6395,10 +6387,10 @@
       <c r="I88" s="26"/>
     </row>
     <row r="89" spans="1:9" ht="31.2">
-      <c r="A89" s="210">
+      <c r="A89" s="214">
         <v>23</v>
       </c>
-      <c r="B89" s="207" t="s">
+      <c r="B89" s="218" t="s">
         <v>231</v>
       </c>
       <c r="C89" s="34" t="s">
@@ -6418,8 +6410,8 @@
       <c r="I89" s="26"/>
     </row>
     <row r="90" spans="1:9" ht="46.8">
-      <c r="A90" s="208"/>
-      <c r="B90" s="208"/>
+      <c r="A90" s="215"/>
+      <c r="B90" s="215"/>
       <c r="C90" s="34" t="s">
         <v>235</v>
       </c>
@@ -6439,8 +6431,8 @@
       <c r="I90" s="26"/>
     </row>
     <row r="91" spans="1:9" ht="31.2">
-      <c r="A91" s="208"/>
-      <c r="B91" s="208"/>
+      <c r="A91" s="215"/>
+      <c r="B91" s="215"/>
       <c r="C91" s="34" t="s">
         <v>238</v>
       </c>
@@ -6460,8 +6452,8 @@
       <c r="I91" s="26"/>
     </row>
     <row r="92" spans="1:9" ht="31.2">
-      <c r="A92" s="209"/>
-      <c r="B92" s="209"/>
+      <c r="A92" s="216"/>
+      <c r="B92" s="216"/>
       <c r="C92" s="34" t="s">
         <v>241</v>
       </c>
@@ -6479,10 +6471,10 @@
       <c r="I92" s="26"/>
     </row>
     <row r="93" spans="1:9" ht="31.2">
-      <c r="A93" s="210">
+      <c r="A93" s="214">
         <v>24</v>
       </c>
-      <c r="B93" s="207" t="s">
+      <c r="B93" s="218" t="s">
         <v>244</v>
       </c>
       <c r="C93" s="34" t="s">
@@ -6500,8 +6492,8 @@
       <c r="I93" s="26"/>
     </row>
     <row r="94" spans="1:9" ht="31.2">
-      <c r="A94" s="209"/>
-      <c r="B94" s="209"/>
+      <c r="A94" s="216"/>
+      <c r="B94" s="216"/>
       <c r="C94" s="34" t="s">
         <v>247</v>
       </c>
@@ -6517,10 +6509,10 @@
       <c r="I94" s="26"/>
     </row>
     <row r="95" spans="1:9" ht="31.2">
-      <c r="A95" s="210">
+      <c r="A95" s="214">
         <v>25</v>
       </c>
-      <c r="B95" s="207" t="s">
+      <c r="B95" s="218" t="s">
         <v>249</v>
       </c>
       <c r="C95" s="34" t="s">
@@ -6540,8 +6532,8 @@
       <c r="I95" s="26"/>
     </row>
     <row r="96" spans="1:9" ht="31.2">
-      <c r="A96" s="208"/>
-      <c r="B96" s="208"/>
+      <c r="A96" s="215"/>
+      <c r="B96" s="215"/>
       <c r="C96" s="34" t="s">
         <v>252</v>
       </c>
@@ -6559,8 +6551,8 @@
       <c r="I96" s="26"/>
     </row>
     <row r="97" spans="1:9" ht="31.2">
-      <c r="A97" s="209"/>
-      <c r="B97" s="209"/>
+      <c r="A97" s="216"/>
+      <c r="B97" s="216"/>
       <c r="C97" s="34" t="s">
         <v>254</v>
       </c>
@@ -6578,10 +6570,10 @@
       <c r="I97" s="26"/>
     </row>
     <row r="98" spans="1:9" ht="63">
-      <c r="A98" s="210">
+      <c r="A98" s="214">
         <v>26</v>
       </c>
-      <c r="B98" s="207" t="s">
+      <c r="B98" s="218" t="s">
         <v>256</v>
       </c>
       <c r="C98" s="61" t="s">
@@ -6603,8 +6595,8 @@
       <c r="I98" s="26"/>
     </row>
     <row r="99" spans="1:9" ht="31.8">
-      <c r="A99" s="208"/>
-      <c r="B99" s="208"/>
+      <c r="A99" s="215"/>
+      <c r="B99" s="215"/>
       <c r="C99" s="61" t="s">
         <v>260</v>
       </c>
@@ -6624,8 +6616,8 @@
       <c r="I99" s="26"/>
     </row>
     <row r="100" spans="1:9" ht="47.4">
-      <c r="A100" s="208"/>
-      <c r="B100" s="208"/>
+      <c r="A100" s="215"/>
+      <c r="B100" s="215"/>
       <c r="C100" s="61" t="s">
         <v>263</v>
       </c>
@@ -6645,8 +6637,8 @@
       <c r="I100" s="26"/>
     </row>
     <row r="101" spans="1:9" ht="47.4">
-      <c r="A101" s="208"/>
-      <c r="B101" s="208"/>
+      <c r="A101" s="215"/>
+      <c r="B101" s="215"/>
       <c r="C101" s="61" t="s">
         <v>266</v>
       </c>
@@ -6666,8 +6658,8 @@
       <c r="I101" s="26"/>
     </row>
     <row r="102" spans="1:9" ht="47.4">
-      <c r="A102" s="208"/>
-      <c r="B102" s="208"/>
+      <c r="A102" s="215"/>
+      <c r="B102" s="215"/>
       <c r="C102" s="61" t="s">
         <v>269</v>
       </c>
@@ -6687,8 +6679,8 @@
       <c r="I102" s="26"/>
     </row>
     <row r="103" spans="1:9" ht="47.4">
-      <c r="A103" s="208"/>
-      <c r="B103" s="208"/>
+      <c r="A103" s="215"/>
+      <c r="B103" s="215"/>
       <c r="C103" s="61" t="s">
         <v>272</v>
       </c>
@@ -6708,8 +6700,8 @@
       <c r="I103" s="26"/>
     </row>
     <row r="104" spans="1:9" ht="47.4">
-      <c r="A104" s="208"/>
-      <c r="B104" s="208"/>
+      <c r="A104" s="215"/>
+      <c r="B104" s="215"/>
       <c r="C104" s="61" t="s">
         <v>275</v>
       </c>
@@ -6729,8 +6721,8 @@
       <c r="I104" s="26"/>
     </row>
     <row r="105" spans="1:9" ht="47.4">
-      <c r="A105" s="208"/>
-      <c r="B105" s="208"/>
+      <c r="A105" s="215"/>
+      <c r="B105" s="215"/>
       <c r="C105" s="61" t="s">
         <v>278</v>
       </c>
@@ -6750,8 +6742,8 @@
       <c r="I105" s="26"/>
     </row>
     <row r="106" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A106" s="208"/>
-      <c r="B106" s="208"/>
+      <c r="A106" s="215"/>
+      <c r="B106" s="215"/>
       <c r="C106" s="61" t="s">
         <v>281</v>
       </c>
@@ -6771,8 +6763,8 @@
       <c r="I106" s="26"/>
     </row>
     <row r="107" spans="1:9" ht="47.4">
-      <c r="A107" s="208"/>
-      <c r="B107" s="208"/>
+      <c r="A107" s="215"/>
+      <c r="B107" s="215"/>
       <c r="C107" s="61" t="s">
         <v>284</v>
       </c>
@@ -6792,8 +6784,8 @@
       <c r="I107" s="26"/>
     </row>
     <row r="108" spans="1:9" ht="47.4">
-      <c r="A108" s="208"/>
-      <c r="B108" s="208"/>
+      <c r="A108" s="215"/>
+      <c r="B108" s="215"/>
       <c r="C108" s="61" t="s">
         <v>287</v>
       </c>
@@ -6813,8 +6805,8 @@
       <c r="I108" s="26"/>
     </row>
     <row r="109" spans="1:9" ht="47.4">
-      <c r="A109" s="208"/>
-      <c r="B109" s="208"/>
+      <c r="A109" s="215"/>
+      <c r="B109" s="215"/>
       <c r="C109" s="61" t="s">
         <v>290</v>
       </c>
@@ -6834,8 +6826,8 @@
       <c r="I109" s="26"/>
     </row>
     <row r="110" spans="1:9" ht="47.4">
-      <c r="A110" s="208"/>
-      <c r="B110" s="208"/>
+      <c r="A110" s="215"/>
+      <c r="B110" s="215"/>
       <c r="C110" s="61" t="s">
         <v>293</v>
       </c>
@@ -6855,8 +6847,8 @@
       <c r="I110" s="26"/>
     </row>
     <row r="111" spans="1:9" ht="31.8">
-      <c r="A111" s="208"/>
-      <c r="B111" s="208"/>
+      <c r="A111" s="215"/>
+      <c r="B111" s="215"/>
       <c r="C111" s="61" t="s">
         <v>296</v>
       </c>
@@ -6876,8 +6868,8 @@
       <c r="I111" s="26"/>
     </row>
     <row r="112" spans="1:9" ht="31.8">
-      <c r="A112" s="209"/>
-      <c r="B112" s="209"/>
+      <c r="A112" s="216"/>
+      <c r="B112" s="216"/>
       <c r="C112" s="67" t="s">
         <v>299</v>
       </c>
@@ -6897,10 +6889,10 @@
       <c r="I112" s="26"/>
     </row>
     <row r="113" spans="1:9" ht="31.8">
-      <c r="A113" s="210">
+      <c r="A113" s="214">
         <v>27</v>
       </c>
-      <c r="B113" s="207" t="s">
+      <c r="B113" s="218" t="s">
         <v>302</v>
       </c>
       <c r="C113" s="34" t="s">
@@ -6922,8 +6914,8 @@
       <c r="I113" s="26"/>
     </row>
     <row r="114" spans="1:9" ht="31.8">
-      <c r="A114" s="208"/>
-      <c r="B114" s="208"/>
+      <c r="A114" s="215"/>
+      <c r="B114" s="215"/>
       <c r="C114" s="54" t="s">
         <v>306</v>
       </c>
@@ -6943,8 +6935,8 @@
       <c r="I114" s="26"/>
     </row>
     <row r="115" spans="1:9" ht="31.2">
-      <c r="A115" s="208"/>
-      <c r="B115" s="208"/>
+      <c r="A115" s="215"/>
+      <c r="B115" s="215"/>
       <c r="C115" s="54" t="s">
         <v>309</v>
       </c>
@@ -6960,8 +6952,8 @@
       <c r="I115" s="26"/>
     </row>
     <row r="116" spans="1:9" ht="62.4">
-      <c r="A116" s="208"/>
-      <c r="B116" s="208"/>
+      <c r="A116" s="215"/>
+      <c r="B116" s="215"/>
       <c r="C116" s="34" t="s">
         <v>311</v>
       </c>
@@ -6979,8 +6971,8 @@
       <c r="I116" s="26"/>
     </row>
     <row r="117" spans="1:9" ht="62.4">
-      <c r="A117" s="208"/>
-      <c r="B117" s="208"/>
+      <c r="A117" s="215"/>
+      <c r="B117" s="215"/>
       <c r="C117" s="34" t="s">
         <v>313</v>
       </c>
@@ -6998,8 +6990,8 @@
       <c r="I117" s="26"/>
     </row>
     <row r="118" spans="1:9" ht="47.4">
-      <c r="A118" s="208"/>
-      <c r="B118" s="208"/>
+      <c r="A118" s="215"/>
+      <c r="B118" s="215"/>
       <c r="C118" s="67" t="s">
         <v>315</v>
       </c>
@@ -7017,8 +7009,8 @@
       <c r="I118" s="26"/>
     </row>
     <row r="119" spans="1:9" ht="47.4">
-      <c r="A119" s="209"/>
-      <c r="B119" s="209"/>
+      <c r="A119" s="216"/>
+      <c r="B119" s="216"/>
       <c r="C119" s="67" t="s">
         <v>317</v>
       </c>
@@ -7036,10 +7028,10 @@
       <c r="I119" s="26"/>
     </row>
     <row r="120" spans="1:9" ht="47.4">
-      <c r="A120" s="210">
+      <c r="A120" s="214">
         <v>28</v>
       </c>
-      <c r="B120" s="207" t="s">
+      <c r="B120" s="218" t="s">
         <v>319</v>
       </c>
       <c r="C120" s="67" t="s">
@@ -7059,8 +7051,8 @@
       <c r="I120" s="26"/>
     </row>
     <row r="121" spans="1:9" ht="47.4">
-      <c r="A121" s="208"/>
-      <c r="B121" s="208"/>
+      <c r="A121" s="215"/>
+      <c r="B121" s="215"/>
       <c r="C121" s="67" t="s">
         <v>322</v>
       </c>
@@ -7078,8 +7070,8 @@
       <c r="I121" s="26"/>
     </row>
     <row r="122" spans="1:9" ht="47.4">
-      <c r="A122" s="208"/>
-      <c r="B122" s="208"/>
+      <c r="A122" s="215"/>
+      <c r="B122" s="215"/>
       <c r="C122" s="67" t="s">
         <v>324</v>
       </c>
@@ -7097,8 +7089,8 @@
       <c r="I122" s="26"/>
     </row>
     <row r="123" spans="1:9" ht="31.8">
-      <c r="A123" s="208"/>
-      <c r="B123" s="208"/>
+      <c r="A123" s="215"/>
+      <c r="B123" s="215"/>
       <c r="C123" s="17" t="s">
         <v>326</v>
       </c>
@@ -7114,8 +7106,8 @@
       <c r="I123" s="26"/>
     </row>
     <row r="124" spans="1:9" ht="47.4">
-      <c r="A124" s="208"/>
-      <c r="B124" s="208"/>
+      <c r="A124" s="215"/>
+      <c r="B124" s="215"/>
       <c r="C124" s="17" t="s">
         <v>328</v>
       </c>
@@ -7133,8 +7125,8 @@
       <c r="I124" s="26"/>
     </row>
     <row r="125" spans="1:9" ht="47.4">
-      <c r="A125" s="208"/>
-      <c r="B125" s="208"/>
+      <c r="A125" s="215"/>
+      <c r="B125" s="215"/>
       <c r="C125" s="17" t="s">
         <v>330</v>
       </c>
@@ -7152,8 +7144,8 @@
       <c r="I125" s="26"/>
     </row>
     <row r="126" spans="1:9" ht="31.8">
-      <c r="A126" s="208"/>
-      <c r="B126" s="208"/>
+      <c r="A126" s="215"/>
+      <c r="B126" s="215"/>
       <c r="C126" s="17" t="s">
         <v>332</v>
       </c>
@@ -7171,8 +7163,8 @@
       <c r="I126" s="26"/>
     </row>
     <row r="127" spans="1:9" ht="31.2">
-      <c r="A127" s="208"/>
-      <c r="B127" s="208"/>
+      <c r="A127" s="215"/>
+      <c r="B127" s="215"/>
       <c r="C127" s="12" t="s">
         <v>334</v>
       </c>
@@ -7190,8 +7182,8 @@
       <c r="I127" s="26"/>
     </row>
     <row r="128" spans="1:9" ht="31.2">
-      <c r="A128" s="209"/>
-      <c r="B128" s="209"/>
+      <c r="A128" s="216"/>
+      <c r="B128" s="216"/>
       <c r="C128" s="9" t="s">
         <v>336</v>
       </c>
@@ -7209,10 +7201,10 @@
       <c r="I128" s="26"/>
     </row>
     <row r="129" spans="1:9" ht="31.2">
-      <c r="A129" s="210">
+      <c r="A129" s="214">
         <v>29</v>
       </c>
-      <c r="B129" s="207" t="s">
+      <c r="B129" s="218" t="s">
         <v>338</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -7234,8 +7226,8 @@
       <c r="I129" s="26"/>
     </row>
     <row r="130" spans="1:9" ht="46.8">
-      <c r="A130" s="208"/>
-      <c r="B130" s="208"/>
+      <c r="A130" s="215"/>
+      <c r="B130" s="215"/>
       <c r="C130" s="12" t="s">
         <v>342</v>
       </c>
@@ -7255,8 +7247,8 @@
       <c r="I130" s="26"/>
     </row>
     <row r="131" spans="1:9" ht="46.8">
-      <c r="A131" s="208"/>
-      <c r="B131" s="208"/>
+      <c r="A131" s="215"/>
+      <c r="B131" s="215"/>
       <c r="C131" s="12" t="s">
         <v>345</v>
       </c>
@@ -7276,8 +7268,8 @@
       <c r="I131" s="26"/>
     </row>
     <row r="132" spans="1:9" ht="31.2">
-      <c r="A132" s="208"/>
-      <c r="B132" s="208"/>
+      <c r="A132" s="215"/>
+      <c r="B132" s="215"/>
       <c r="C132" s="12" t="s">
         <v>348</v>
       </c>
@@ -7297,8 +7289,8 @@
       <c r="I132" s="26"/>
     </row>
     <row r="133" spans="1:9" ht="31.2">
-      <c r="A133" s="208"/>
-      <c r="B133" s="208"/>
+      <c r="A133" s="215"/>
+      <c r="B133" s="215"/>
       <c r="C133" s="12" t="s">
         <v>351</v>
       </c>
@@ -7318,8 +7310,8 @@
       <c r="I133" s="26"/>
     </row>
     <row r="134" spans="1:9" ht="46.8">
-      <c r="A134" s="209"/>
-      <c r="B134" s="209"/>
+      <c r="A134" s="216"/>
+      <c r="B134" s="216"/>
       <c r="C134" s="8" t="s">
         <v>354</v>
       </c>
@@ -7339,10 +7331,10 @@
       <c r="I134" s="26"/>
     </row>
     <row r="135" spans="1:9" ht="31.2">
-      <c r="A135" s="210">
+      <c r="A135" s="214">
         <v>30</v>
       </c>
-      <c r="B135" s="207" t="s">
+      <c r="B135" s="218" t="s">
         <v>357</v>
       </c>
       <c r="C135" s="34" t="s">
@@ -7360,8 +7352,8 @@
       <c r="I135" s="26"/>
     </row>
     <row r="136" spans="1:9" ht="31.2">
-      <c r="A136" s="208"/>
-      <c r="B136" s="208"/>
+      <c r="A136" s="215"/>
+      <c r="B136" s="215"/>
       <c r="C136" s="34" t="s">
         <v>360</v>
       </c>
@@ -7377,8 +7369,8 @@
       <c r="I136" s="26"/>
     </row>
     <row r="137" spans="1:9" ht="46.8">
-      <c r="A137" s="208"/>
-      <c r="B137" s="208"/>
+      <c r="A137" s="215"/>
+      <c r="B137" s="215"/>
       <c r="C137" s="34" t="s">
         <v>362</v>
       </c>
@@ -7396,8 +7388,8 @@
       <c r="I137" s="26"/>
     </row>
     <row r="138" spans="1:9" ht="46.8">
-      <c r="A138" s="208"/>
-      <c r="B138" s="208"/>
+      <c r="A138" s="215"/>
+      <c r="B138" s="215"/>
       <c r="C138" s="34" t="s">
         <v>364</v>
       </c>
@@ -7415,8 +7407,8 @@
       <c r="I138" s="26"/>
     </row>
     <row r="139" spans="1:9" ht="46.8">
-      <c r="A139" s="208"/>
-      <c r="B139" s="208"/>
+      <c r="A139" s="215"/>
+      <c r="B139" s="215"/>
       <c r="C139" s="34" t="s">
         <v>366</v>
       </c>
@@ -7434,8 +7426,8 @@
       <c r="I139" s="26"/>
     </row>
     <row r="140" spans="1:9" ht="46.8">
-      <c r="A140" s="208"/>
-      <c r="B140" s="208"/>
+      <c r="A140" s="215"/>
+      <c r="B140" s="215"/>
       <c r="C140" s="34" t="s">
         <v>368</v>
       </c>
@@ -7451,8 +7443,8 @@
       <c r="I140" s="26"/>
     </row>
     <row r="141" spans="1:9" ht="31.2">
-      <c r="A141" s="208"/>
-      <c r="B141" s="208"/>
+      <c r="A141" s="215"/>
+      <c r="B141" s="215"/>
       <c r="C141" s="34" t="s">
         <v>370</v>
       </c>
@@ -7468,8 +7460,8 @@
       <c r="I141" s="26"/>
     </row>
     <row r="142" spans="1:9" ht="31.2">
-      <c r="A142" s="209"/>
-      <c r="B142" s="209"/>
+      <c r="A142" s="216"/>
+      <c r="B142" s="216"/>
       <c r="C142" s="34" t="s">
         <v>372</v>
       </c>
@@ -7533,10 +7525,10 @@
       <c r="I144" s="26"/>
     </row>
     <row r="145" spans="1:9" ht="47.4">
-      <c r="A145" s="210">
+      <c r="A145" s="214">
         <v>33</v>
       </c>
-      <c r="B145" s="207" t="s">
+      <c r="B145" s="218" t="s">
         <v>382</v>
       </c>
       <c r="C145" s="17" t="s">
@@ -7558,8 +7550,8 @@
       <c r="I145" s="26"/>
     </row>
     <row r="146" spans="1:9" ht="47.4">
-      <c r="A146" s="208"/>
-      <c r="B146" s="208"/>
+      <c r="A146" s="215"/>
+      <c r="B146" s="215"/>
       <c r="C146" s="17" t="s">
         <v>386</v>
       </c>
@@ -7579,8 +7571,8 @@
       <c r="I146" s="26"/>
     </row>
     <row r="147" spans="1:9" ht="31.8">
-      <c r="A147" s="209"/>
-      <c r="B147" s="209"/>
+      <c r="A147" s="216"/>
+      <c r="B147" s="216"/>
       <c r="C147" s="17" t="s">
         <v>389</v>
       </c>
@@ -7598,10 +7590,10 @@
       <c r="I147" s="26"/>
     </row>
     <row r="148" spans="1:9" ht="62.4">
-      <c r="A148" s="210">
+      <c r="A148" s="214">
         <v>34</v>
       </c>
-      <c r="B148" s="207" t="s">
+      <c r="B148" s="218" t="s">
         <v>392</v>
       </c>
       <c r="C148" s="41" t="s">
@@ -7621,8 +7613,8 @@
       <c r="I148" s="26"/>
     </row>
     <row r="149" spans="1:9" ht="18">
-      <c r="A149" s="208"/>
-      <c r="B149" s="208"/>
+      <c r="A149" s="215"/>
+      <c r="B149" s="215"/>
       <c r="C149" s="41"/>
       <c r="D149" s="34"/>
       <c r="E149" s="10"/>
@@ -7636,8 +7628,8 @@
       <c r="I149" s="26"/>
     </row>
     <row r="150" spans="1:9" ht="18">
-      <c r="A150" s="208"/>
-      <c r="B150" s="208"/>
+      <c r="A150" s="215"/>
+      <c r="B150" s="215"/>
       <c r="C150" s="41"/>
       <c r="D150" s="34"/>
       <c r="E150" s="10"/>
@@ -7651,8 +7643,8 @@
       <c r="I150" s="26"/>
     </row>
     <row r="151" spans="1:9" ht="62.4">
-      <c r="A151" s="209"/>
-      <c r="B151" s="209"/>
+      <c r="A151" s="216"/>
+      <c r="B151" s="216"/>
       <c r="C151" s="41" t="s">
         <v>397</v>
       </c>
@@ -7670,10 +7662,10 @@
       <c r="I151" s="26"/>
     </row>
     <row r="152" spans="1:9" ht="62.4">
-      <c r="A152" s="210">
+      <c r="A152" s="214">
         <v>35</v>
       </c>
-      <c r="B152" s="207" t="s">
+      <c r="B152" s="218" t="s">
         <v>399</v>
       </c>
       <c r="C152" s="34" t="s">
@@ -7691,8 +7683,8 @@
       <c r="I152" s="26"/>
     </row>
     <row r="153" spans="1:9" ht="31.2">
-      <c r="A153" s="208"/>
-      <c r="B153" s="208"/>
+      <c r="A153" s="215"/>
+      <c r="B153" s="215"/>
       <c r="C153" s="34" t="s">
         <v>402</v>
       </c>
@@ -7708,8 +7700,8 @@
       <c r="I153" s="26"/>
     </row>
     <row r="154" spans="1:9" ht="62.4">
-      <c r="A154" s="208"/>
-      <c r="B154" s="208"/>
+      <c r="A154" s="215"/>
+      <c r="B154" s="215"/>
       <c r="C154" s="41" t="s">
         <v>404</v>
       </c>
@@ -7727,8 +7719,8 @@
       <c r="I154" s="26"/>
     </row>
     <row r="155" spans="1:9" ht="46.8">
-      <c r="A155" s="209"/>
-      <c r="B155" s="209"/>
+      <c r="A155" s="216"/>
+      <c r="B155" s="216"/>
       <c r="C155" s="34" t="s">
         <v>406</v>
       </c>
@@ -7746,10 +7738,10 @@
       <c r="I155" s="36"/>
     </row>
     <row r="156" spans="1:9" ht="31.2">
-      <c r="A156" s="210">
+      <c r="A156" s="214">
         <v>36</v>
       </c>
-      <c r="B156" s="207" t="s">
+      <c r="B156" s="218" t="s">
         <v>408</v>
       </c>
       <c r="C156" s="34" t="s">
@@ -7767,8 +7759,8 @@
       <c r="I156" s="26"/>
     </row>
     <row r="157" spans="1:9" ht="31.2">
-      <c r="A157" s="208"/>
-      <c r="B157" s="208"/>
+      <c r="A157" s="215"/>
+      <c r="B157" s="215"/>
       <c r="C157" s="34" t="s">
         <v>411</v>
       </c>
@@ -7784,8 +7776,8 @@
       <c r="I157" s="26"/>
     </row>
     <row r="158" spans="1:9" ht="31.2">
-      <c r="A158" s="208"/>
-      <c r="B158" s="208"/>
+      <c r="A158" s="215"/>
+      <c r="B158" s="215"/>
       <c r="C158" s="34" t="s">
         <v>413</v>
       </c>
@@ -7801,8 +7793,8 @@
       <c r="I158" s="26"/>
     </row>
     <row r="159" spans="1:9" ht="31.8">
-      <c r="A159" s="209"/>
-      <c r="B159" s="209"/>
+      <c r="A159" s="216"/>
+      <c r="B159" s="216"/>
       <c r="C159" s="82" t="s">
         <v>415</v>
       </c>
@@ -7818,10 +7810,10 @@
       <c r="I159" s="26"/>
     </row>
     <row r="160" spans="1:9" ht="31.2">
-      <c r="A160" s="210">
+      <c r="A160" s="214">
         <v>37</v>
       </c>
-      <c r="B160" s="207" t="s">
+      <c r="B160" s="218" t="s">
         <v>417</v>
       </c>
       <c r="C160" s="34" t="s">
@@ -7841,8 +7833,8 @@
       <c r="I160" s="26"/>
     </row>
     <row r="161" spans="1:9" ht="46.8">
-      <c r="A161" s="208"/>
-      <c r="B161" s="208"/>
+      <c r="A161" s="215"/>
+      <c r="B161" s="215"/>
       <c r="C161" s="34" t="s">
         <v>420</v>
       </c>
@@ -7860,8 +7852,8 @@
       <c r="I161" s="26"/>
     </row>
     <row r="162" spans="1:9" ht="46.8">
-      <c r="A162" s="209"/>
-      <c r="B162" s="209"/>
+      <c r="A162" s="216"/>
+      <c r="B162" s="216"/>
       <c r="C162" s="34" t="s">
         <v>422</v>
       </c>
@@ -7879,10 +7871,10 @@
       <c r="I162" s="26"/>
     </row>
     <row r="163" spans="1:9" ht="31.2">
-      <c r="A163" s="210">
+      <c r="A163" s="214">
         <v>38</v>
       </c>
-      <c r="B163" s="207" t="s">
+      <c r="B163" s="218" t="s">
         <v>424</v>
       </c>
       <c r="C163" s="34" t="s">
@@ -7900,8 +7892,8 @@
       <c r="I163" s="26"/>
     </row>
     <row r="164" spans="1:9" ht="31.2">
-      <c r="A164" s="208"/>
-      <c r="B164" s="208"/>
+      <c r="A164" s="215"/>
+      <c r="B164" s="215"/>
       <c r="C164" s="34" t="s">
         <v>427</v>
       </c>
@@ -7917,8 +7909,8 @@
       <c r="I164" s="26"/>
     </row>
     <row r="165" spans="1:9" ht="46.8">
-      <c r="A165" s="208"/>
-      <c r="B165" s="208"/>
+      <c r="A165" s="215"/>
+      <c r="B165" s="215"/>
       <c r="C165" s="34" t="s">
         <v>429</v>
       </c>
@@ -7936,8 +7928,8 @@
       <c r="I165" s="26"/>
     </row>
     <row r="166" spans="1:9" ht="46.8">
-      <c r="A166" s="208"/>
-      <c r="B166" s="208"/>
+      <c r="A166" s="215"/>
+      <c r="B166" s="215"/>
       <c r="C166" s="34" t="s">
         <v>431</v>
       </c>
@@ -7955,8 +7947,8 @@
       <c r="I166" s="26"/>
     </row>
     <row r="167" spans="1:9" ht="31.2">
-      <c r="A167" s="208"/>
-      <c r="B167" s="208"/>
+      <c r="A167" s="215"/>
+      <c r="B167" s="215"/>
       <c r="C167" s="34" t="s">
         <v>433</v>
       </c>
@@ -7974,8 +7966,8 @@
       <c r="I167" s="26"/>
     </row>
     <row r="168" spans="1:9" ht="31.2">
-      <c r="A168" s="208"/>
-      <c r="B168" s="208"/>
+      <c r="A168" s="215"/>
+      <c r="B168" s="215"/>
       <c r="C168" s="34" t="s">
         <v>435</v>
       </c>
@@ -7993,8 +7985,8 @@
       <c r="I168" s="26"/>
     </row>
     <row r="169" spans="1:9" ht="46.8">
-      <c r="A169" s="208"/>
-      <c r="B169" s="208"/>
+      <c r="A169" s="215"/>
+      <c r="B169" s="215"/>
       <c r="C169" s="34" t="s">
         <v>437</v>
       </c>
@@ -8012,8 +8004,8 @@
       <c r="I169" s="26"/>
     </row>
     <row r="170" spans="1:9" ht="46.8">
-      <c r="A170" s="208"/>
-      <c r="B170" s="208"/>
+      <c r="A170" s="215"/>
+      <c r="B170" s="215"/>
       <c r="C170" s="34" t="s">
         <v>439</v>
       </c>
@@ -8031,8 +8023,8 @@
       <c r="I170" s="26"/>
     </row>
     <row r="171" spans="1:9" ht="62.4">
-      <c r="A171" s="208"/>
-      <c r="B171" s="208"/>
+      <c r="A171" s="215"/>
+      <c r="B171" s="215"/>
       <c r="C171" s="34" t="s">
         <v>441</v>
       </c>
@@ -8050,8 +8042,8 @@
       <c r="I171" s="26"/>
     </row>
     <row r="172" spans="1:9" ht="62.4">
-      <c r="A172" s="208"/>
-      <c r="B172" s="208"/>
+      <c r="A172" s="215"/>
+      <c r="B172" s="215"/>
       <c r="C172" s="34" t="s">
         <v>443</v>
       </c>
@@ -8069,8 +8061,8 @@
       <c r="I172" s="26"/>
     </row>
     <row r="173" spans="1:9" ht="62.4">
-      <c r="A173" s="208"/>
-      <c r="B173" s="208"/>
+      <c r="A173" s="215"/>
+      <c r="B173" s="215"/>
       <c r="C173" s="9" t="s">
         <v>445</v>
       </c>
@@ -8088,8 +8080,8 @@
       <c r="I173" s="26"/>
     </row>
     <row r="174" spans="1:9" ht="31.2">
-      <c r="A174" s="208"/>
-      <c r="B174" s="208"/>
+      <c r="A174" s="215"/>
+      <c r="B174" s="215"/>
       <c r="C174" s="34" t="s">
         <v>447</v>
       </c>
@@ -8107,8 +8099,8 @@
       <c r="I174" s="26"/>
     </row>
     <row r="175" spans="1:9" ht="31.2">
-      <c r="A175" s="209"/>
-      <c r="B175" s="209"/>
+      <c r="A175" s="216"/>
+      <c r="B175" s="216"/>
       <c r="C175" s="34" t="s">
         <v>449</v>
       </c>
@@ -8150,6 +8142,62 @@
   </sheetData>
   <autoFilter ref="A1:G175" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="70">
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B163:B175"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B112"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="B135:B142"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
     <mergeCell ref="A160:A162"/>
     <mergeCell ref="A163:A175"/>
     <mergeCell ref="A89:A92"/>
@@ -8164,62 +8212,6 @@
     <mergeCell ref="A148:A151"/>
     <mergeCell ref="A152:A155"/>
     <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B163:B175"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B112"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="B120:B128"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="B135:B142"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1">
     <cfRule type="notContainsBlanks" dxfId="5" priority="1">
@@ -8238,7 +8230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B3EB21-ECD3-4FFE-A3A7-AEF064BB07DD}">
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -8261,7 +8253,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="219" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="182" t="s">
@@ -8272,7 +8264,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6">
-      <c r="A3" s="213"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="182" t="s">
         <v>212</v>
       </c>
@@ -8281,7 +8273,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6">
-      <c r="A4" s="213"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="182" t="s">
         <v>214</v>
       </c>
@@ -8290,7 +8282,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6">
-      <c r="A5" s="213"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="183" t="s">
         <v>268</v>
       </c>
@@ -8299,7 +8291,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6">
-      <c r="A6" s="213"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="182" t="s">
         <v>98</v>
       </c>
@@ -8308,7 +8300,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6">
-      <c r="A7" s="213"/>
+      <c r="A7" s="220"/>
       <c r="B7" s="182" t="s">
         <v>216</v>
       </c>
@@ -8317,7 +8309,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6">
-      <c r="A8" s="213"/>
+      <c r="A8" s="220"/>
       <c r="B8" s="182" t="s">
         <v>218</v>
       </c>
@@ -8326,7 +8318,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6">
-      <c r="A9" s="213"/>
+      <c r="A9" s="220"/>
       <c r="B9" s="184" t="s">
         <v>13</v>
       </c>
@@ -8335,7 +8327,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6">
-      <c r="A10" s="213"/>
+      <c r="A10" s="220"/>
       <c r="B10" s="182" t="s">
         <v>220</v>
       </c>
@@ -8344,7 +8336,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6">
-      <c r="A11" s="213"/>
+      <c r="A11" s="220"/>
       <c r="B11" s="183" t="s">
         <v>274</v>
       </c>
@@ -8353,7 +8345,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6">
-      <c r="A12" s="213"/>
+      <c r="A12" s="220"/>
       <c r="B12" s="182" t="s">
         <v>100</v>
       </c>
@@ -8362,7 +8354,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6">
-      <c r="A13" s="213"/>
+      <c r="A13" s="220"/>
       <c r="B13" s="185" t="s">
         <v>410</v>
       </c>
@@ -8371,14 +8363,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6">
-      <c r="A14" s="213"/>
+      <c r="A14" s="220"/>
       <c r="B14" s="182" t="s">
         <v>222</v>
       </c>
       <c r="C14" s="180"/>
     </row>
     <row r="15" spans="1:3" ht="15.6">
-      <c r="A15" s="213"/>
+      <c r="A15" s="220"/>
       <c r="B15" s="184" t="s">
         <v>16</v>
       </c>
@@ -8387,7 +8379,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6">
-      <c r="A16" s="213"/>
+      <c r="A16" s="220"/>
       <c r="B16" s="185" t="s">
         <v>19</v>
       </c>
@@ -8396,7 +8388,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6">
-      <c r="A17" s="213"/>
+      <c r="A17" s="220"/>
       <c r="B17" s="184" t="s">
         <v>45</v>
       </c>
@@ -8405,7 +8397,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6">
-      <c r="A18" s="213"/>
+      <c r="A18" s="220"/>
       <c r="B18" s="182" t="s">
         <v>102</v>
       </c>
@@ -8414,7 +8406,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6">
-      <c r="A19" s="214"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="183" t="s">
         <v>271</v>
       </c>
@@ -8423,7 +8415,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6">
-      <c r="A20" s="212" t="s">
+      <c r="A20" s="219" t="s">
         <v>165</v>
       </c>
       <c r="B20" s="185" t="s">
@@ -8434,7 +8426,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6">
-      <c r="A21" s="215"/>
+      <c r="A21" s="222"/>
       <c r="B21" s="182" t="s">
         <v>381</v>
       </c>
@@ -8443,7 +8435,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6">
-      <c r="A22" s="215"/>
+      <c r="A22" s="222"/>
       <c r="B22" s="183" t="s">
         <v>388</v>
       </c>
@@ -8452,7 +8444,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6">
-      <c r="A23" s="215"/>
+      <c r="A23" s="222"/>
       <c r="B23" s="187" t="s">
         <v>166</v>
       </c>
@@ -8461,14 +8453,14 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6">
-      <c r="A24" s="215"/>
+      <c r="A24" s="222"/>
       <c r="B24" s="183" t="s">
         <v>283</v>
       </c>
       <c r="C24" s="180"/>
     </row>
     <row r="25" spans="1:3" ht="15.6">
-      <c r="A25" s="215"/>
+      <c r="A25" s="222"/>
       <c r="B25" s="183" t="s">
         <v>277</v>
       </c>
@@ -8477,7 +8469,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6">
-      <c r="A26" s="215"/>
+      <c r="A26" s="222"/>
       <c r="B26" s="183" t="s">
         <v>444</v>
       </c>
@@ -8486,7 +8478,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6">
-      <c r="A27" s="215"/>
+      <c r="A27" s="222"/>
       <c r="B27" s="183" t="s">
         <v>314</v>
       </c>
@@ -8495,7 +8487,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6">
-      <c r="A28" s="215"/>
+      <c r="A28" s="222"/>
       <c r="B28" s="183" t="s">
         <v>164</v>
       </c>
@@ -8504,7 +8496,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6">
-      <c r="A29" s="215"/>
+      <c r="A29" s="222"/>
       <c r="B29" s="183" t="s">
         <v>246</v>
       </c>
@@ -8513,7 +8505,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6">
-      <c r="A30" s="215"/>
+      <c r="A30" s="222"/>
       <c r="B30" s="183" t="s">
         <v>385</v>
       </c>
@@ -8522,7 +8514,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6">
-      <c r="A31" s="215"/>
+      <c r="A31" s="222"/>
       <c r="B31" s="185" t="s">
         <v>185</v>
       </c>
@@ -8531,7 +8523,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6">
-      <c r="A32" s="215"/>
+      <c r="A32" s="222"/>
       <c r="B32" s="183" t="s">
         <v>442</v>
       </c>
@@ -8540,7 +8532,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6">
-      <c r="A33" s="215"/>
+      <c r="A33" s="222"/>
       <c r="B33" s="183" t="s">
         <v>289</v>
       </c>
@@ -8549,7 +8541,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6">
-      <c r="A34" s="215"/>
+      <c r="A34" s="222"/>
       <c r="B34" s="183" t="s">
         <v>286</v>
       </c>
@@ -8558,7 +8550,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6">
-      <c r="A35" s="215"/>
+      <c r="A35" s="222"/>
       <c r="B35" s="183" t="s">
         <v>312</v>
       </c>
@@ -8567,14 +8559,14 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6">
-      <c r="A36" s="215"/>
+      <c r="A36" s="222"/>
       <c r="B36" s="183" t="s">
         <v>280</v>
       </c>
       <c r="C36" s="180"/>
     </row>
     <row r="37" spans="1:3" ht="15.6">
-      <c r="A37" s="216"/>
+      <c r="A37" s="223"/>
       <c r="B37" s="183" t="s">
         <v>248</v>
       </c>
@@ -10114,7 +10106,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10135,7 +10127,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="224">
         <v>1</v>
       </c>
       <c r="B2" s="176">
@@ -10146,9 +10138,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
+      <c r="A3" s="224"/>
       <c r="B3" s="176">
         <v>45818</v>
       </c>
@@ -10157,9 +10147,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
+      <c r="A4" s="224"/>
       <c r="B4" s="176">
         <v>45819</v>
       </c>
@@ -10168,9 +10156,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="224"/>
       <c r="B5" s="176">
         <v>45820</v>
       </c>
@@ -10179,9 +10165,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1</v>
-      </c>
+      <c r="A6" s="224"/>
       <c r="B6" s="176">
         <v>45821</v>
       </c>
@@ -10190,9 +10174,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1</v>
-      </c>
+      <c r="A7" s="224"/>
       <c r="B7" s="176">
         <v>45824</v>
       </c>
@@ -10201,9 +10183,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1</v>
-      </c>
+      <c r="A8" s="224"/>
       <c r="B8" s="176">
         <v>45825</v>
       </c>
@@ -10212,9 +10192,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
-        <v>1</v>
-      </c>
+      <c r="A9" s="224"/>
       <c r="B9" s="176">
         <v>45826</v>
       </c>
@@ -10223,9 +10201,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
-        <v>1</v>
-      </c>
+      <c r="A10" s="224"/>
       <c r="B10" s="176">
         <v>45827</v>
       </c>
@@ -10234,9 +10210,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
-        <v>1</v>
-      </c>
+      <c r="A11" s="224"/>
       <c r="B11" s="176">
         <v>45828</v>
       </c>
@@ -10245,9 +10219,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
-        <v>1</v>
-      </c>
+      <c r="A12" s="224"/>
       <c r="B12" s="176">
         <v>45831</v>
       </c>
@@ -10256,7 +10228,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="224">
         <v>2</v>
       </c>
       <c r="B13" s="176">
@@ -10267,9 +10239,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
-        <v>2</v>
-      </c>
+      <c r="A14" s="224"/>
       <c r="B14" s="176">
         <v>45818</v>
       </c>
@@ -10278,9 +10248,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
-        <v>2</v>
-      </c>
+      <c r="A15" s="224"/>
       <c r="B15" s="176">
         <v>45819</v>
       </c>
@@ -10289,9 +10257,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
-        <v>2</v>
-      </c>
+      <c r="A16" s="224"/>
       <c r="B16" s="176">
         <v>45820</v>
       </c>
@@ -10300,9 +10266,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
-        <v>2</v>
-      </c>
+      <c r="A17" s="224"/>
       <c r="B17" s="176">
         <v>45821</v>
       </c>
@@ -10311,9 +10275,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
-        <v>2</v>
-      </c>
+      <c r="A18" s="224"/>
       <c r="B18" s="176">
         <v>45824</v>
       </c>
@@ -10322,9 +10284,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
-        <v>2</v>
-      </c>
+      <c r="A19" s="224"/>
       <c r="B19" s="176">
         <v>45825</v>
       </c>
@@ -10333,9 +10293,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
-        <v>2</v>
-      </c>
+      <c r="A20" s="224"/>
       <c r="B20" s="176">
         <v>45826</v>
       </c>
@@ -10344,9 +10302,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
-        <v>2</v>
-      </c>
+      <c r="A21" s="224"/>
       <c r="B21" s="176">
         <v>45827</v>
       </c>
@@ -10355,9 +10311,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
-        <v>2</v>
-      </c>
+      <c r="A22" s="224"/>
       <c r="B22" s="176">
         <v>45828</v>
       </c>
@@ -10366,9 +10320,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
-        <v>2</v>
-      </c>
+      <c r="A23" s="224"/>
       <c r="B23" s="176">
         <v>45831</v>
       </c>
@@ -10377,6 +10329,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10387,8 +10343,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10750,8 +10707,8 @@
       <c r="A28" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B28" s="221"/>
-      <c r="C28" s="221"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="208"/>
     </row>
     <row r="29" spans="1:4" ht="15.6">
       <c r="A29" s="67" t="s">
@@ -10915,15 +10872,15 @@
       <c r="A42" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="222"/>
-      <c r="C42" s="222"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="209"/>
     </row>
     <row r="43" spans="1:4" ht="15.6" hidden="1">
       <c r="A43" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="223"/>
-      <c r="C43" s="223"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="210"/>
     </row>
     <row r="44" spans="1:4" ht="15.6">
       <c r="A44" s="34" t="s">
@@ -11266,15 +11223,15 @@
       <c r="A70" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="B70" s="217"/>
-      <c r="C70" s="217"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
     </row>
     <row r="71" spans="1:4" ht="15.6" hidden="1">
       <c r="A71" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="219"/>
-      <c r="C71" s="219"/>
+      <c r="B71" s="205"/>
+      <c r="C71" s="205"/>
     </row>
     <row r="72" spans="1:4" ht="15.6">
       <c r="A72" s="34" t="s">
@@ -11444,8 +11401,8 @@
       <c r="A85" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="220"/>
-      <c r="C85" s="220"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
     </row>
     <row r="86" spans="1:4" ht="31.2">
       <c r="A86" s="34" t="s">
@@ -11755,36 +11712,36 @@
       <c r="A109" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B109" s="217"/>
-      <c r="C109" s="217"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
     </row>
     <row r="110" spans="1:4" ht="15.6" hidden="1">
       <c r="A110" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B110" s="217"/>
-      <c r="C110" s="217"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
     </row>
     <row r="111" spans="1:4" ht="15.6" hidden="1">
       <c r="A111" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B111" s="217"/>
-      <c r="C111" s="217"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
     </row>
     <row r="112" spans="1:4" ht="15.6" hidden="1">
       <c r="A112" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B112" s="217"/>
-      <c r="C112" s="217"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
     </row>
     <row r="113" spans="1:4" ht="31.2">
       <c r="A113" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B113" s="217"/>
-      <c r="C113" s="217"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
       <c r="D113">
         <v>1</v>
       </c>
@@ -11793,8 +11750,8 @@
       <c r="A114" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="B114" s="217"/>
-      <c r="C114" s="217"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="51"/>
       <c r="D114">
         <v>1</v>
       </c>
@@ -11903,15 +11860,15 @@
       <c r="A123" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="B123" s="217"/>
-      <c r="C123" s="217"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="51"/>
     </row>
     <row r="124" spans="1:4" ht="15.6">
       <c r="A124" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B124" s="218"/>
-      <c r="C124" s="218"/>
+      <c r="B124" s="207"/>
+      <c r="C124" s="207"/>
       <c r="D124">
         <v>1</v>
       </c>
@@ -12020,8 +11977,8 @@
       <c r="A133" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="B133" s="224"/>
-      <c r="C133" s="224"/>
+      <c r="B133" s="211"/>
+      <c r="C133" s="211"/>
     </row>
     <row r="134" spans="1:4" ht="31.2">
       <c r="A134" s="34" t="s">
@@ -12163,8 +12120,8 @@
       <c r="A145" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="B145" s="217"/>
-      <c r="C145" s="217"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="51"/>
     </row>
     <row r="146" spans="1:4" ht="15.6">
       <c r="A146" s="17" t="s">
@@ -12441,43 +12398,43 @@
     </row>
     <row r="168" spans="1:4" ht="15.6">
       <c r="A168" s="39"/>
-      <c r="B168" s="225"/>
-      <c r="C168" s="225"/>
+      <c r="B168" s="212"/>
+      <c r="C168" s="212"/>
     </row>
     <row r="169" spans="1:4" ht="15.6">
       <c r="A169" s="41"/>
-      <c r="B169" s="224"/>
-      <c r="C169" s="224"/>
+      <c r="B169" s="211"/>
+      <c r="C169" s="211"/>
     </row>
     <row r="170" spans="1:4" ht="15.6">
       <c r="A170" s="41"/>
-      <c r="B170" s="224"/>
-      <c r="C170" s="224"/>
+      <c r="B170" s="211"/>
+      <c r="C170" s="211"/>
     </row>
     <row r="171" spans="1:4" ht="15.6">
       <c r="A171" s="41"/>
-      <c r="B171" s="224"/>
-      <c r="C171" s="224"/>
+      <c r="B171" s="211"/>
+      <c r="C171" s="211"/>
     </row>
     <row r="172" spans="1:4" ht="15.6">
       <c r="A172" s="41"/>
-      <c r="B172" s="224"/>
-      <c r="C172" s="224"/>
+      <c r="B172" s="211"/>
+      <c r="C172" s="211"/>
     </row>
     <row r="173" spans="1:4" ht="15.6">
       <c r="A173" s="206"/>
-      <c r="B173" s="226"/>
-      <c r="C173" s="226"/>
+      <c r="B173" s="213"/>
+      <c r="C173" s="213"/>
     </row>
     <row r="174" spans="1:4" ht="15.6">
       <c r="A174" s="41"/>
-      <c r="B174" s="224"/>
-      <c r="C174" s="224"/>
+      <c r="B174" s="211"/>
+      <c r="C174" s="211"/>
     </row>
     <row r="175" spans="1:4" ht="15.6">
       <c r="A175" s="41"/>
-      <c r="B175" s="224"/>
-      <c r="C175" s="224"/>
+      <c r="B175" s="211"/>
+      <c r="C175" s="211"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D165" xr:uid="{2D38E5A2-D302-4448-922F-F30FC47FF37E}">

--- a/Data/2024-2025_ПІ_Бакалаври.xlsx
+++ b/Data/2024-2025_ПІ_Бакалаври.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PY\DefenseSchedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833ADAFB-0B0E-4EE4-8326-EC4E0FF758AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48994D72-5335-4721-8190-4502BC45D6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="204" windowWidth="21828" windowHeight="11952" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1188" yWindow="204" windowWidth="21852" windowHeight="11952" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Денне" sheetId="1" r:id="rId1"/>
@@ -4297,15 +4297,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4626,10 +4626,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="46.8">
-      <c r="A2" s="200">
-        <v>1</v>
-      </c>
-      <c r="B2" s="203" t="s">
+      <c r="A2" s="203">
+        <v>1</v>
+      </c>
+      <c r="B2" s="204" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4685,10 +4685,10 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="46.8">
-      <c r="A5" s="200">
+      <c r="A5" s="203">
         <v>2</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="204" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4756,10 +4756,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.2">
-      <c r="A8" s="200">
+      <c r="A8" s="203">
         <v>3</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="204" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -4927,10 +4927,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.2">
-      <c r="A15" s="200">
+      <c r="A15" s="203">
         <v>4</v>
       </c>
-      <c r="B15" s="203" t="s">
+      <c r="B15" s="204" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -5000,10 +5000,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="62.4">
-      <c r="A18" s="200">
+      <c r="A18" s="203">
         <v>5</v>
       </c>
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="200" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -5111,10 +5111,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6">
-      <c r="A23" s="200">
+      <c r="A23" s="203">
         <v>6</v>
       </c>
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="200" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -5203,10 +5203,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="31.2">
-      <c r="A27" s="200">
+      <c r="A27" s="203">
         <v>7</v>
       </c>
-      <c r="B27" s="204" t="s">
+      <c r="B27" s="200" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -5251,10 +5251,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.8">
-      <c r="A29" s="200">
+      <c r="A29" s="203">
         <v>8</v>
       </c>
-      <c r="B29" s="204" t="s">
+      <c r="B29" s="200" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -5295,10 +5295,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="31.2">
-      <c r="A31" s="200">
+      <c r="A31" s="203">
         <v>9</v>
       </c>
-      <c r="B31" s="204" t="s">
+      <c r="B31" s="200" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -5366,10 +5366,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.2">
-      <c r="A34" s="200">
+      <c r="A34" s="203">
         <v>10</v>
       </c>
-      <c r="B34" s="204" t="s">
+      <c r="B34" s="200" t="s">
         <v>94</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -5508,10 +5508,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6">
-      <c r="A40" s="200">
+      <c r="A40" s="203">
         <v>11</v>
       </c>
-      <c r="B40" s="204" t="s">
+      <c r="B40" s="200" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="38"/>
@@ -5575,10 +5575,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="31.2">
-      <c r="A43" s="200">
+      <c r="A43" s="203">
         <v>12</v>
       </c>
-      <c r="B43" s="204" t="s">
+      <c r="B43" s="200" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -5629,10 +5629,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="31.2">
-      <c r="A45" s="200">
+      <c r="A45" s="203">
         <v>13</v>
       </c>
-      <c r="B45" s="204" t="s">
+      <c r="B45" s="200" t="s">
         <v>118</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -5827,10 +5827,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="31.2">
-      <c r="A53" s="200">
+      <c r="A53" s="203">
         <v>14</v>
       </c>
-      <c r="B53" s="204" t="s">
+      <c r="B53" s="200" t="s">
         <v>143</v>
       </c>
       <c r="C53" s="35" t="s">
@@ -5877,10 +5877,10 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="62.4">
-      <c r="A55" s="200">
+      <c r="A55" s="203">
         <v>15</v>
       </c>
-      <c r="B55" s="204" t="s">
+      <c r="B55" s="200" t="s">
         <v>149</v>
       </c>
       <c r="C55" s="34" t="s">
@@ -5946,10 +5946,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6">
-      <c r="A58" s="200">
+      <c r="A58" s="203">
         <v>16</v>
       </c>
-      <c r="B58" s="204" t="s">
+      <c r="B58" s="200" t="s">
         <v>156</v>
       </c>
       <c r="C58" s="40" t="s">
@@ -6144,10 +6144,10 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="31.2">
-      <c r="A66" s="200">
+      <c r="A66" s="203">
         <v>17</v>
       </c>
-      <c r="B66" s="204" t="s">
+      <c r="B66" s="200" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -6259,10 +6259,10 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="31.2">
-      <c r="A71" s="200">
+      <c r="A71" s="203">
         <v>18</v>
       </c>
-      <c r="B71" s="204" t="s">
+      <c r="B71" s="200" t="s">
         <v>192</v>
       </c>
       <c r="C71" s="34" t="s">
@@ -6336,10 +6336,10 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="46.8">
-      <c r="A74" s="200">
+      <c r="A74" s="203">
         <v>19</v>
       </c>
-      <c r="B74" s="204" t="s">
+      <c r="B74" s="200" t="s">
         <v>201</v>
       </c>
       <c r="C74" s="34" t="s">
@@ -6420,10 +6420,10 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="31.2">
-      <c r="A78" s="200">
+      <c r="A78" s="203">
         <v>20</v>
       </c>
-      <c r="B78" s="204" t="s">
+      <c r="B78" s="200" t="s">
         <v>210</v>
       </c>
       <c r="C78" s="34" t="s">
@@ -6604,10 +6604,10 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.6">
-      <c r="A86" s="200">
+      <c r="A86" s="203">
         <v>22</v>
       </c>
-      <c r="B86" s="204" t="s">
+      <c r="B86" s="200" t="s">
         <v>227</v>
       </c>
       <c r="C86" s="40"/>
@@ -6665,10 +6665,10 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="31.2">
-      <c r="A89" s="200">
+      <c r="A89" s="203">
         <v>23</v>
       </c>
-      <c r="B89" s="204" t="s">
+      <c r="B89" s="200" t="s">
         <v>231</v>
       </c>
       <c r="C89" s="34" t="s">
@@ -6765,10 +6765,10 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="31.2">
-      <c r="A93" s="200">
+      <c r="A93" s="203">
         <v>24</v>
       </c>
-      <c r="B93" s="204" t="s">
+      <c r="B93" s="200" t="s">
         <v>244</v>
       </c>
       <c r="C93" s="34" t="s">
@@ -6811,10 +6811,10 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="31.2">
-      <c r="A95" s="200">
+      <c r="A95" s="203">
         <v>25</v>
       </c>
-      <c r="B95" s="204" t="s">
+      <c r="B95" s="200" t="s">
         <v>249</v>
       </c>
       <c r="C95" s="34" t="s">
@@ -6884,10 +6884,10 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="62.4">
-      <c r="A98" s="200">
+      <c r="A98" s="203">
         <v>26</v>
       </c>
-      <c r="B98" s="204" t="s">
+      <c r="B98" s="200" t="s">
         <v>256</v>
       </c>
       <c r="C98" s="60" t="s">
@@ -7263,10 +7263,10 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="31.2">
-      <c r="A113" s="200">
+      <c r="A113" s="203">
         <v>27</v>
       </c>
-      <c r="B113" s="204" t="s">
+      <c r="B113" s="200" t="s">
         <v>302</v>
       </c>
       <c r="C113" s="34" t="s">
@@ -7430,10 +7430,10 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="46.8">
-      <c r="A120" s="200">
+      <c r="A120" s="203">
         <v>28</v>
       </c>
-      <c r="B120" s="204" t="s">
+      <c r="B120" s="200" t="s">
         <v>319</v>
       </c>
       <c r="C120" s="66" t="s">
@@ -7639,10 +7639,10 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="31.2">
-      <c r="A129" s="200">
+      <c r="A129" s="203">
         <v>29</v>
       </c>
-      <c r="B129" s="204" t="s">
+      <c r="B129" s="200" t="s">
         <v>338</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -7793,10 +7793,10 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="31.2">
-      <c r="A135" s="200">
+      <c r="A135" s="203">
         <v>30</v>
       </c>
-      <c r="B135" s="204" t="s">
+      <c r="B135" s="200" t="s">
         <v>357</v>
       </c>
       <c r="C135" s="34" t="s">
@@ -8027,10 +8027,10 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="46.8">
-      <c r="A145" s="200">
+      <c r="A145" s="203">
         <v>33</v>
       </c>
-      <c r="B145" s="204" t="s">
+      <c r="B145" s="200" t="s">
         <v>382</v>
       </c>
       <c r="C145" s="17" t="s">
@@ -8104,10 +8104,10 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="62.4">
-      <c r="A148" s="200">
+      <c r="A148" s="203">
         <v>34</v>
       </c>
-      <c r="B148" s="204" t="s">
+      <c r="B148" s="200" t="s">
         <v>392</v>
       </c>
       <c r="C148" s="40" t="s">
@@ -8192,10 +8192,10 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="62.4">
-      <c r="A152" s="200">
+      <c r="A152" s="203">
         <v>35</v>
       </c>
-      <c r="B152" s="204" t="s">
+      <c r="B152" s="200" t="s">
         <v>399</v>
       </c>
       <c r="C152" s="34" t="s">
@@ -8284,10 +8284,10 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="31.2">
-      <c r="A156" s="200">
+      <c r="A156" s="203">
         <v>36</v>
       </c>
-      <c r="B156" s="204" t="s">
+      <c r="B156" s="200" t="s">
         <v>408</v>
       </c>
       <c r="C156" s="34" t="s">
@@ -8372,10 +8372,10 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="31.2">
-      <c r="A160" s="200">
+      <c r="A160" s="203">
         <v>37</v>
       </c>
-      <c r="B160" s="204" t="s">
+      <c r="B160" s="200" t="s">
         <v>417</v>
       </c>
       <c r="C160" s="34" t="s">
@@ -8441,10 +8441,10 @@
       <c r="I162" s="50"/>
     </row>
     <row r="163" spans="1:9" ht="31.2">
-      <c r="A163" s="200">
+      <c r="A163" s="203">
         <v>38</v>
       </c>
-      <c r="B163" s="204" t="s">
+      <c r="B163" s="200" t="s">
         <v>424</v>
       </c>
       <c r="C163" s="34" t="s">
@@ -8799,62 +8799,6 @@
   </sheetData>
   <autoFilter ref="A1:G175" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="70">
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B163:B175"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B112"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="B120:B128"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="B135:B142"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
     <mergeCell ref="A160:A162"/>
     <mergeCell ref="A163:A175"/>
     <mergeCell ref="A89:A92"/>
@@ -8869,6 +8813,62 @@
     <mergeCell ref="A148:A151"/>
     <mergeCell ref="A152:A155"/>
     <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B163:B175"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B112"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="B135:B142"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1">
     <cfRule type="notContainsBlanks" dxfId="5" priority="2">
@@ -8892,8 +8892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B3EB21-ECD3-4FFE-A3A7-AEF064BB07DD}">
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9119,9 +9119,7 @@
       <c r="B24" s="181" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="178">
-        <v>50</v>
-      </c>
+      <c r="C24" s="178"/>
     </row>
     <row r="25" spans="1:3" ht="15.6">
       <c r="A25" s="208"/>
@@ -9227,9 +9225,7 @@
       <c r="B36" s="181" t="s">
         <v>280</v>
       </c>
-      <c r="C36" s="178">
-        <v>55</v>
-      </c>
+      <c r="C36" s="178"/>
     </row>
     <row r="37" spans="1:3" ht="15.6">
       <c r="A37" s="209"/>

--- a/Data/2024-2025_ПІ_Бакалаври.xlsx
+++ b/Data/2024-2025_ПІ_Бакалаври.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PY\DefenseSchedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48994D72-5335-4721-8190-4502BC45D6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761DEB17-61C1-4942-8766-2588C7B4C632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1188" yWindow="204" windowWidth="21852" windowHeight="11952" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1188" yWindow="204" windowWidth="21852" windowHeight="11952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Денне" sheetId="1" r:id="rId1"/>
@@ -4297,15 +4297,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4576,11 +4576,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4626,10 +4626,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="46.8">
-      <c r="A2" s="203">
-        <v>1</v>
-      </c>
-      <c r="B2" s="204" t="s">
+      <c r="A2" s="200">
+        <v>1</v>
+      </c>
+      <c r="B2" s="203" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4685,10 +4685,10 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="46.8">
-      <c r="A5" s="203">
+      <c r="A5" s="200">
         <v>2</v>
       </c>
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="203" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4756,10 +4756,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.2">
-      <c r="A8" s="203">
+      <c r="A8" s="200">
         <v>3</v>
       </c>
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="203" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -4850,9 +4850,6 @@
       <c r="G11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="I11" s="174">
         <v>45827</v>
       </c>
@@ -4873,9 +4870,6 @@
       <c r="G12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
       <c r="I12" s="174">
         <v>45828</v>
       </c>
@@ -4927,10 +4921,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.2">
-      <c r="A15" s="203">
+      <c r="A15" s="200">
         <v>4</v>
       </c>
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="203" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -5000,10 +4994,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="62.4">
-      <c r="A18" s="203">
+      <c r="A18" s="200">
         <v>5</v>
       </c>
-      <c r="B18" s="200" t="s">
+      <c r="B18" s="204" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -5111,10 +5105,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6">
-      <c r="A23" s="203">
+      <c r="A23" s="200">
         <v>6</v>
       </c>
-      <c r="B23" s="200" t="s">
+      <c r="B23" s="204" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -5203,10 +5197,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="31.2">
-      <c r="A27" s="203">
+      <c r="A27" s="200">
         <v>7</v>
       </c>
-      <c r="B27" s="200" t="s">
+      <c r="B27" s="204" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -5251,10 +5245,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.8">
-      <c r="A29" s="203">
+      <c r="A29" s="200">
         <v>8</v>
       </c>
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="204" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -5295,10 +5289,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="31.2">
-      <c r="A31" s="203">
+      <c r="A31" s="200">
         <v>9</v>
       </c>
-      <c r="B31" s="200" t="s">
+      <c r="B31" s="204" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -5366,10 +5360,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.2">
-      <c r="A34" s="203">
+      <c r="A34" s="200">
         <v>10</v>
       </c>
-      <c r="B34" s="200" t="s">
+      <c r="B34" s="204" t="s">
         <v>94</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -5508,10 +5502,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6">
-      <c r="A40" s="203">
+      <c r="A40" s="200">
         <v>11</v>
       </c>
-      <c r="B40" s="200" t="s">
+      <c r="B40" s="204" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="38"/>
@@ -5575,10 +5569,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="31.2">
-      <c r="A43" s="203">
+      <c r="A43" s="200">
         <v>12</v>
       </c>
-      <c r="B43" s="200" t="s">
+      <c r="B43" s="204" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -5629,10 +5623,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="31.2">
-      <c r="A45" s="203">
+      <c r="A45" s="200">
         <v>13</v>
       </c>
-      <c r="B45" s="200" t="s">
+      <c r="B45" s="204" t="s">
         <v>118</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -5827,10 +5821,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="31.2">
-      <c r="A53" s="203">
+      <c r="A53" s="200">
         <v>14</v>
       </c>
-      <c r="B53" s="200" t="s">
+      <c r="B53" s="204" t="s">
         <v>143</v>
       </c>
       <c r="C53" s="35" t="s">
@@ -5877,10 +5871,10 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="62.4">
-      <c r="A55" s="203">
+      <c r="A55" s="200">
         <v>15</v>
       </c>
-      <c r="B55" s="200" t="s">
+      <c r="B55" s="204" t="s">
         <v>149</v>
       </c>
       <c r="C55" s="34" t="s">
@@ -5946,10 +5940,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6">
-      <c r="A58" s="203">
+      <c r="A58" s="200">
         <v>16</v>
       </c>
-      <c r="B58" s="200" t="s">
+      <c r="B58" s="204" t="s">
         <v>156</v>
       </c>
       <c r="C58" s="40" t="s">
@@ -6144,10 +6138,10 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="31.2">
-      <c r="A66" s="203">
+      <c r="A66" s="200">
         <v>17</v>
       </c>
-      <c r="B66" s="200" t="s">
+      <c r="B66" s="204" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -6259,10 +6253,10 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="31.2">
-      <c r="A71" s="203">
+      <c r="A71" s="200">
         <v>18</v>
       </c>
-      <c r="B71" s="200" t="s">
+      <c r="B71" s="204" t="s">
         <v>192</v>
       </c>
       <c r="C71" s="34" t="s">
@@ -6336,10 +6330,10 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="46.8">
-      <c r="A74" s="203">
+      <c r="A74" s="200">
         <v>19</v>
       </c>
-      <c r="B74" s="200" t="s">
+      <c r="B74" s="204" t="s">
         <v>201</v>
       </c>
       <c r="C74" s="34" t="s">
@@ -6420,10 +6414,10 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="31.2">
-      <c r="A78" s="203">
+      <c r="A78" s="200">
         <v>20</v>
       </c>
-      <c r="B78" s="200" t="s">
+      <c r="B78" s="204" t="s">
         <v>210</v>
       </c>
       <c r="C78" s="34" t="s">
@@ -6604,10 +6598,10 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.6">
-      <c r="A86" s="203">
+      <c r="A86" s="200">
         <v>22</v>
       </c>
-      <c r="B86" s="200" t="s">
+      <c r="B86" s="204" t="s">
         <v>227</v>
       </c>
       <c r="C86" s="40"/>
@@ -6665,10 +6659,10 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="31.2">
-      <c r="A89" s="203">
+      <c r="A89" s="200">
         <v>23</v>
       </c>
-      <c r="B89" s="200" t="s">
+      <c r="B89" s="204" t="s">
         <v>231</v>
       </c>
       <c r="C89" s="34" t="s">
@@ -6765,10 +6759,10 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="31.2">
-      <c r="A93" s="203">
+      <c r="A93" s="200">
         <v>24</v>
       </c>
-      <c r="B93" s="200" t="s">
+      <c r="B93" s="204" t="s">
         <v>244</v>
       </c>
       <c r="C93" s="34" t="s">
@@ -6811,10 +6805,10 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="31.2">
-      <c r="A95" s="203">
+      <c r="A95" s="200">
         <v>25</v>
       </c>
-      <c r="B95" s="200" t="s">
+      <c r="B95" s="204" t="s">
         <v>249</v>
       </c>
       <c r="C95" s="34" t="s">
@@ -6884,10 +6878,10 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="62.4">
-      <c r="A98" s="203">
+      <c r="A98" s="200">
         <v>26</v>
       </c>
-      <c r="B98" s="200" t="s">
+      <c r="B98" s="204" t="s">
         <v>256</v>
       </c>
       <c r="C98" s="60" t="s">
@@ -7263,10 +7257,10 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="31.2">
-      <c r="A113" s="203">
+      <c r="A113" s="200">
         <v>27</v>
       </c>
-      <c r="B113" s="200" t="s">
+      <c r="B113" s="204" t="s">
         <v>302</v>
       </c>
       <c r="C113" s="34" t="s">
@@ -7430,10 +7424,10 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="46.8">
-      <c r="A120" s="203">
+      <c r="A120" s="200">
         <v>28</v>
       </c>
-      <c r="B120" s="200" t="s">
+      <c r="B120" s="204" t="s">
         <v>319</v>
       </c>
       <c r="C120" s="66" t="s">
@@ -7639,10 +7633,10 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="31.2">
-      <c r="A129" s="203">
+      <c r="A129" s="200">
         <v>29</v>
       </c>
-      <c r="B129" s="200" t="s">
+      <c r="B129" s="204" t="s">
         <v>338</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -7793,10 +7787,10 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="31.2">
-      <c r="A135" s="203">
+      <c r="A135" s="200">
         <v>30</v>
       </c>
-      <c r="B135" s="200" t="s">
+      <c r="B135" s="204" t="s">
         <v>357</v>
       </c>
       <c r="C135" s="34" t="s">
@@ -8027,10 +8021,10 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="46.8">
-      <c r="A145" s="203">
+      <c r="A145" s="200">
         <v>33</v>
       </c>
-      <c r="B145" s="200" t="s">
+      <c r="B145" s="204" t="s">
         <v>382</v>
       </c>
       <c r="C145" s="17" t="s">
@@ -8104,10 +8098,10 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="62.4">
-      <c r="A148" s="203">
+      <c r="A148" s="200">
         <v>34</v>
       </c>
-      <c r="B148" s="200" t="s">
+      <c r="B148" s="204" t="s">
         <v>392</v>
       </c>
       <c r="C148" s="40" t="s">
@@ -8192,10 +8186,10 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="62.4">
-      <c r="A152" s="203">
+      <c r="A152" s="200">
         <v>35</v>
       </c>
-      <c r="B152" s="200" t="s">
+      <c r="B152" s="204" t="s">
         <v>399</v>
       </c>
       <c r="C152" s="34" t="s">
@@ -8284,10 +8278,10 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="31.2">
-      <c r="A156" s="203">
+      <c r="A156" s="200">
         <v>36</v>
       </c>
-      <c r="B156" s="200" t="s">
+      <c r="B156" s="204" t="s">
         <v>408</v>
       </c>
       <c r="C156" s="34" t="s">
@@ -8372,10 +8366,10 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="31.2">
-      <c r="A160" s="203">
+      <c r="A160" s="200">
         <v>37</v>
       </c>
-      <c r="B160" s="200" t="s">
+      <c r="B160" s="204" t="s">
         <v>417</v>
       </c>
       <c r="C160" s="34" t="s">
@@ -8441,10 +8435,10 @@
       <c r="I162" s="50"/>
     </row>
     <row r="163" spans="1:9" ht="31.2">
-      <c r="A163" s="203">
+      <c r="A163" s="200">
         <v>38</v>
       </c>
-      <c r="B163" s="200" t="s">
+      <c r="B163" s="204" t="s">
         <v>424</v>
       </c>
       <c r="C163" s="34" t="s">
@@ -8799,6 +8793,62 @@
   </sheetData>
   <autoFilter ref="A1:G175" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="70">
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B163:B175"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B112"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="B135:B142"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
     <mergeCell ref="A160:A162"/>
     <mergeCell ref="A163:A175"/>
     <mergeCell ref="A89:A92"/>
@@ -8813,62 +8863,6 @@
     <mergeCell ref="A148:A151"/>
     <mergeCell ref="A152:A155"/>
     <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B163:B175"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B112"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="B120:B128"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="B135:B142"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1">
     <cfRule type="notContainsBlanks" dxfId="5" priority="2">
@@ -8892,7 +8886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B3EB21-ECD3-4FFE-A3A7-AEF064BB07DD}">
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -15942,7 +15936,7 @@
       </c>
       <c r="R101" s="105"/>
     </row>
-    <row r="102" spans="1:18" ht="87">
+    <row r="102" spans="1:18" ht="104.4">
       <c r="A102" s="106"/>
       <c r="B102" s="120"/>
       <c r="C102" s="151" t="s">
@@ -20949,7 +20943,7 @@
       </c>
       <c r="D118" s="108"/>
     </row>
-    <row r="119" spans="1:4" ht="87">
+    <row r="119" spans="1:4" ht="104.4">
       <c r="A119" s="112" t="s">
         <v>875</v>
       </c>
@@ -21395,7 +21389,7 @@
       </c>
       <c r="D152" s="108"/>
     </row>
-    <row r="153" spans="1:4" ht="69.599999999999994">
+    <row r="153" spans="1:4" ht="87">
       <c r="A153" s="112" t="s">
         <v>997</v>
       </c>
@@ -21409,7 +21403,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="69.599999999999994">
+    <row r="154" spans="1:4" ht="87">
       <c r="A154" s="112" t="s">
         <v>1000</v>
       </c>
@@ -23176,7 +23170,7 @@
       </c>
       <c r="D118" s="108"/>
     </row>
-    <row r="119" spans="1:4" ht="87">
+    <row r="119" spans="1:4" ht="104.4">
       <c r="A119" s="112" t="s">
         <v>875</v>
       </c>
@@ -23622,7 +23616,7 @@
       </c>
       <c r="D152" s="108"/>
     </row>
-    <row r="153" spans="1:4" ht="69.599999999999994">
+    <row r="153" spans="1:4" ht="87">
       <c r="A153" s="112" t="s">
         <v>997</v>
       </c>
@@ -23636,7 +23630,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="69.599999999999994">
+    <row r="154" spans="1:4" ht="87">
       <c r="A154" s="112" t="s">
         <v>1000</v>
       </c>
@@ -24559,7 +24553,7 @@
       </c>
       <c r="D67" s="104"/>
     </row>
-    <row r="68" spans="1:4" ht="69.599999999999994">
+    <row r="68" spans="1:4" ht="87">
       <c r="A68" s="112" t="s">
         <v>695</v>
       </c>
@@ -25269,7 +25263,7 @@
       </c>
       <c r="D118" s="104"/>
     </row>
-    <row r="119" spans="1:4" ht="69.599999999999994">
+    <row r="119" spans="1:4" ht="87">
       <c r="A119" s="112" t="s">
         <v>875</v>
       </c>
